--- a/xcel_data/ele_prod.xlsx
+++ b/xcel_data/ele_prod.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAMS\NEWAGE_article_coupling\xcel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Documents\NEWAGE_diss\xcel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -475,9 +475,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -722,9 +722,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -882,7 +882,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -1028,7 +1028,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -1174,7 +1174,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -1320,7 +1320,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -1466,7 +1466,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -1612,7 +1612,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -1758,7 +1758,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -1904,7 +1904,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -2050,7 +2050,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -2196,7 +2196,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -2342,7 +2342,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -2488,7 +2488,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -2634,7 +2634,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -2780,7 +2780,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -2926,7 +2926,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -3072,7 +3072,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -3218,7 +3218,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -3364,7 +3364,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-D538-457F-9A84-24982EED6560}"/>
             </c:ext>
@@ -3380,11 +3380,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97754624"/>
-        <c:axId val="50817856"/>
+        <c:axId val="216286208"/>
+        <c:axId val="216286768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97754624"/>
+        <c:axId val="216286208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,7 +3394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50817856"/>
+        <c:crossAx val="216286768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3402,7 +3402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50817856"/>
+        <c:axId val="216286768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4350"/>
@@ -3414,7 +3414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97754624"/>
+        <c:crossAx val="216286208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3446,9 +3446,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3520,7 +3520,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -3570,7 +3570,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -3620,7 +3620,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -3670,7 +3670,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -3720,7 +3720,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -3770,7 +3770,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -3820,7 +3820,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -3870,7 +3870,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -3920,7 +3920,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -3970,7 +3970,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -4020,7 +4020,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -4070,7 +4070,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -4120,7 +4120,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -4170,7 +4170,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -4220,7 +4220,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -4270,7 +4270,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -4320,7 +4320,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -4370,7 +4370,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-1150-4FB5-9039-84393518EF22}"/>
             </c:ext>
@@ -4386,11 +4386,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97802752"/>
-        <c:axId val="50821312"/>
+        <c:axId val="739781824"/>
+        <c:axId val="739782384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97802752"/>
+        <c:axId val="739781824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,7 +4400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50821312"/>
+        <c:crossAx val="739782384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4408,7 +4408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50821312"/>
+        <c:axId val="739782384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,7 +4419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97802752"/>
+        <c:crossAx val="739781824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6070,7 +6070,7 @@
             <v>318.99599999999998</v>
           </cell>
           <cell r="M4">
-            <v>711.56600000000003</v>
+            <v>833.79600000000005</v>
           </cell>
           <cell r="N4">
             <v>428.33</v>
@@ -6091,7 +6091,7 @@
             <v>140.22800000000001</v>
           </cell>
           <cell r="T4">
-            <v>560.52200000000005</v>
+            <v>438.29200000000009</v>
           </cell>
         </row>
         <row r="5">
@@ -6185,7 +6185,7 @@
             <v>17.89</v>
           </cell>
           <cell r="M6">
-            <v>20.010000000000002</v>
+            <v>20.700000000000003</v>
           </cell>
           <cell r="N6">
             <v>0</v>
@@ -6206,7 +6206,7 @@
             <v>9.3699999999999992</v>
           </cell>
           <cell r="T6">
-            <v>15.379999999999999</v>
+            <v>14.69</v>
           </cell>
         </row>
         <row r="7">
@@ -6303,7 +6303,7 @@
             <v>120.17659999999999</v>
           </cell>
           <cell r="M8">
-            <v>35.347000000000008</v>
+            <v>40.464000000000006</v>
           </cell>
           <cell r="N8">
             <v>3</v>
@@ -6324,7 +6324,7 @@
             <v>2.9807000000000001</v>
           </cell>
           <cell r="T8">
-            <v>8.6117000000000008</v>
+            <v>3.4946999999999995</v>
           </cell>
         </row>
         <row r="9">
@@ -6362,7 +6362,7 @@
             <v>1369.7639999999999</v>
           </cell>
           <cell r="M9">
-            <v>520.34400000000005</v>
+            <v>554.20200000000011</v>
           </cell>
           <cell r="N9">
             <v>7.92E-3</v>
@@ -6383,7 +6383,7 @@
             <v>0</v>
           </cell>
           <cell r="T9">
-            <v>367.39889999999997</v>
+            <v>357.80579999999998</v>
           </cell>
         </row>
         <row r="10">
@@ -6421,7 +6421,7 @@
             <v>389.50560000000007</v>
           </cell>
           <cell r="M10">
-            <v>90.198899999999895</v>
+            <v>102.48479999999986</v>
           </cell>
           <cell r="N10">
             <v>0.78408</v>
@@ -6442,7 +6442,7 @@
             <v>11.5632</v>
           </cell>
           <cell r="T10">
-            <v>84.753899999999902</v>
+            <v>48.203099999999999</v>
           </cell>
         </row>
         <row r="11">
@@ -6477,7 +6477,7 @@
             <v>93.5946</v>
           </cell>
           <cell r="M11">
-            <v>119.01779999999999</v>
+            <v>158.3109</v>
           </cell>
           <cell r="N11">
             <v>5.6727000000000007</v>
@@ -6498,7 +6498,7 @@
             <v>80.19</v>
           </cell>
           <cell r="T11">
-            <v>139.52069999999998</v>
+            <v>100.2276</v>
           </cell>
         </row>
         <row r="12">
@@ -6536,7 +6536,7 @@
             <v>12.162000000000001</v>
           </cell>
           <cell r="M12">
-            <v>108.4</v>
+            <v>144.79999999999998</v>
           </cell>
           <cell r="N12">
             <v>0.14800000000000002</v>
@@ -6557,7 +6557,7 @@
             <v>250</v>
           </cell>
           <cell r="T12">
-            <v>104</v>
+            <v>31.2</v>
           </cell>
         </row>
         <row r="13">
@@ -6595,7 +6595,7 @@
             <v>13.679000000000002</v>
           </cell>
           <cell r="M13">
-            <v>72.396000000000001</v>
+            <v>55.218000000000018</v>
           </cell>
           <cell r="N13">
             <v>7.3260000000000005</v>
@@ -6616,7 +6616,7 @@
             <v>98.112000000000037</v>
           </cell>
           <cell r="T13">
-            <v>106.392</v>
+            <v>158.41600000000005</v>
           </cell>
         </row>
         <row r="14">
@@ -6654,7 +6654,7 @@
             <v>13.679000000000002</v>
           </cell>
           <cell r="M14">
-            <v>48.263999999999996</v>
+            <v>36.812000000000012</v>
           </cell>
           <cell r="N14">
             <v>7.3260000000000005</v>
@@ -6675,7 +6675,7 @@
             <v>24.528000000000006</v>
           </cell>
           <cell r="T14">
-            <v>26.597999999999985</v>
+            <v>39.603999999999985</v>
           </cell>
         </row>
         <row r="15">
@@ -6713,7 +6713,7 @@
             <v>251.76808799999998</v>
           </cell>
           <cell r="M15">
-            <v>200.43539999999999</v>
+            <v>278.19990000000001</v>
           </cell>
           <cell r="N15">
             <v>0.24848999999999999</v>
@@ -6734,7 +6734,7 @@
             <v>495</v>
           </cell>
           <cell r="T15">
-            <v>443.11211999999995</v>
+            <v>303.13601999999997</v>
           </cell>
         </row>
         <row r="16">
@@ -6772,7 +6772,7 @@
             <v>548.12058839999997</v>
           </cell>
           <cell r="M16">
-            <v>450.51335999999998</v>
+            <v>488.1175199999999</v>
           </cell>
           <cell r="N16">
             <v>12.300255</v>
@@ -6793,7 +6793,7 @@
             <v>175.41216000000003</v>
           </cell>
           <cell r="T16">
-            <v>205.13394000000008</v>
+            <v>212.73714000000007</v>
           </cell>
         </row>
         <row r="17">
@@ -6831,7 +6831,7 @@
             <v>245.36132359999999</v>
           </cell>
           <cell r="M17">
-            <v>120.34123999999991</v>
+            <v>131.00257999999997</v>
           </cell>
           <cell r="N17">
             <v>12.551255000000001</v>
@@ -6849,7 +6849,7 @@
             <v>51.06783999999999</v>
           </cell>
           <cell r="T17">
-            <v>213.75394000000009</v>
+            <v>220.0968400000001</v>
           </cell>
         </row>
         <row r="18">
@@ -6887,7 +6887,7 @@
             <v>53.699999999999996</v>
           </cell>
           <cell r="M18">
-            <v>46.36</v>
+            <v>53.38000000000001</v>
           </cell>
           <cell r="N18">
             <v>32.15</v>
@@ -6908,7 +6908,7 @@
             <v>0.77</v>
           </cell>
           <cell r="T18">
-            <v>22.339999999999996</v>
+            <v>15.32</v>
           </cell>
         </row>
         <row r="19">
@@ -6946,7 +6946,7 @@
             <v>17.324512000000084</v>
           </cell>
           <cell r="M19">
-            <v>8.4827999999999406</v>
+            <v>10.007199999999898</v>
           </cell>
           <cell r="N19">
             <v>5.9889999999999666E-2</v>
@@ -6967,7 +6967,7 @@
             <v>5.8100000000000023</v>
           </cell>
           <cell r="T19">
-            <v>9.5962800000000925</v>
+            <v>7.6885800000000017</v>
           </cell>
         </row>
         <row r="20">
@@ -7005,7 +7005,7 @@
             <v>9.4709715999999844</v>
           </cell>
           <cell r="M20">
-            <v>5.4617400000000202</v>
+            <v>5.9656800000000203</v>
           </cell>
           <cell r="N20">
             <v>0.13216500000000053</v>
@@ -7026,7 +7026,7 @@
             <v>1.8886400000000094</v>
           </cell>
           <cell r="T20">
-            <v>2.9281599999999912</v>
+            <v>2.6357600000000048</v>
           </cell>
         </row>
       </sheetData>
@@ -12523,13 +12523,7 @@
       <sheetName val="Electricity prod REEEM pathway"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>DEU</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="C2" t="str">
@@ -12538,8 +12532,8 @@
           <cell r="D2" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E2">
-            <v>132.91</v>
+          <cell r="E2" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="3">
@@ -12549,8 +12543,8 @@
           <cell r="D3" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E3">
-            <v>17.065999999999999</v>
+          <cell r="E3" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="4">
@@ -12560,8 +12554,8 @@
           <cell r="D4" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E4">
-            <v>11.42</v>
+          <cell r="E4" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="5">
@@ -12571,8 +12565,8 @@
           <cell r="D5" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E5">
-            <v>0</v>
+          <cell r="E5" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="6">
@@ -12582,8 +12576,8 @@
           <cell r="D6" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E6">
-            <v>11.676</v>
+          <cell r="E6" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="7">
@@ -12593,8 +12587,8 @@
           <cell r="D7" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E7">
-            <v>37.707000000000001</v>
+          <cell r="E7" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="8">
@@ -12604,8 +12598,8 @@
           <cell r="D8" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E8">
-            <v>16.663</v>
+          <cell r="E8" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="9">
@@ -12615,8 +12609,8 @@
           <cell r="D9" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E9">
-            <v>101.393</v>
+          <cell r="E9" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="10">
@@ -12626,8 +12620,8 @@
           <cell r="D10" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E10">
-            <v>148.37299999999999</v>
+          <cell r="E10" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="11">
@@ -12637,8 +12631,8 @@
           <cell r="D11" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E11">
-            <v>0</v>
+          <cell r="E11" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="12">
@@ -12648,8 +12642,8 @@
           <cell r="D12" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E12">
-            <v>1.5049999999999999</v>
+          <cell r="E12" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="13">
@@ -12659,8 +12653,8 @@
           <cell r="D13" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E13">
-            <v>0</v>
+          <cell r="E13" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="14">
@@ -12670,8 +12664,8 @@
           <cell r="D14" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E14">
-            <v>34.417999999999999</v>
+          <cell r="E14" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="15">
@@ -12681,8 +12675,8 @@
           <cell r="D15" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E15">
-            <v>29.34</v>
+          <cell r="E15" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="16">
@@ -12692,8 +12686,8 @@
           <cell r="D16" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E16">
-            <v>11.195</v>
+          <cell r="E16" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="17">
@@ -12703,8 +12697,8 @@
           <cell r="D17" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E17">
-            <v>50.771999999999998</v>
+          <cell r="E17" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="18">
@@ -12714,8 +12708,8 @@
           <cell r="D18" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E18">
-            <v>0</v>
+          <cell r="E18" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="19">
@@ -12725,8 +12719,8 @@
           <cell r="D19" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E19">
-            <v>0</v>
+          <cell r="E19" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="20">
@@ -12736,8 +12730,8 @@
           <cell r="D20" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E20">
-            <v>428.52100000000002</v>
+          <cell r="E20" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="21">
@@ -12747,8 +12741,8 @@
           <cell r="D21" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E21">
-            <v>29.911999999999999</v>
+          <cell r="E21" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="22">
@@ -12758,8 +12752,8 @@
           <cell r="D22" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E22">
-            <v>35.335000000000001</v>
+          <cell r="E22" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="23">
@@ -12769,8 +12763,8 @@
           <cell r="D23" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E23">
-            <v>0</v>
+          <cell r="E23" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="24">
@@ -12780,8 +12774,8 @@
           <cell r="D24" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E24">
-            <v>0.55500000000000005</v>
+          <cell r="E24" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="25">
@@ -12791,8 +12785,8 @@
           <cell r="D25" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E25">
-            <v>7.83</v>
+          <cell r="E25" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="26">
@@ -12802,8 +12796,8 @@
           <cell r="D26" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E26">
-            <v>8.3000000000000004E-2</v>
+          <cell r="E26" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="27">
@@ -12813,8 +12807,8 @@
           <cell r="D27" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E27">
-            <v>0</v>
+          <cell r="E27" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="28">
@@ -12824,8 +12818,8 @@
           <cell r="D28" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E28">
-            <v>0</v>
+          <cell r="E28" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="29">
@@ -12835,8 +12829,8 @@
           <cell r="D29" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E29">
-            <v>0</v>
+          <cell r="E29" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="30">
@@ -12846,8 +12840,8 @@
           <cell r="D30" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E30">
-            <v>1.4E-2</v>
+          <cell r="E30" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="31">
@@ -12857,8 +12851,8 @@
           <cell r="D31" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E31">
-            <v>0.42200000000000004</v>
+          <cell r="E31" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="32">
@@ -12868,8 +12862,8 @@
           <cell r="D32" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E32">
-            <v>0</v>
+          <cell r="E32" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="33">
@@ -12879,8 +12873,8 @@
           <cell r="D33" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E33">
-            <v>7.5149999999999997</v>
+          <cell r="E33" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="34">
@@ -12890,8 +12884,8 @@
           <cell r="D34" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E34">
-            <v>1.9640000000000002</v>
+          <cell r="E34" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="35">
@@ -12901,8 +12895,8 @@
           <cell r="D35" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E35">
-            <v>4.1609999999999996</v>
+          <cell r="E35" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="36">
@@ -12912,8 +12906,8 @@
           <cell r="D36" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E36">
-            <v>0</v>
+          <cell r="E36" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="37">
@@ -12923,8 +12917,8 @@
           <cell r="D37" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E37">
-            <v>0</v>
+          <cell r="E37" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="38">
@@ -12934,8 +12928,8 @@
           <cell r="D38" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E38">
-            <v>0</v>
+          <cell r="E38" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="39">
@@ -12945,8 +12939,8 @@
           <cell r="D39" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E39">
-            <v>17.823</v>
+          <cell r="E39" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="40">
@@ -12956,8 +12950,8 @@
           <cell r="D40" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E40">
-            <v>35.177</v>
+          <cell r="E40" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="41">
@@ -12967,8 +12961,8 @@
           <cell r="D41" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E41">
-            <v>4.673</v>
+          <cell r="E41" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="42">
@@ -12978,8 +12972,8 @@
           <cell r="D42" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E42">
-            <v>1.8740000000000001</v>
+          <cell r="E42" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="43">
@@ -12989,8 +12983,8 @@
           <cell r="D43" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E43">
-            <v>9.0440000000000005</v>
+          <cell r="E43" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="44">
@@ -13000,8 +12994,8 @@
           <cell r="D44" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E44">
-            <v>0.10100000000000001</v>
+          <cell r="E44" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="45">
@@ -13011,8 +13005,8 @@
           <cell r="D45" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E45">
-            <v>35.643000000000001</v>
+          <cell r="E45" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="46">
@@ -13022,8 +13016,8 @@
           <cell r="D46" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E46">
-            <v>0</v>
+          <cell r="E46" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="47">
@@ -13033,8 +13027,8 @@
           <cell r="D47" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E47">
-            <v>0</v>
+          <cell r="E47" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="48">
@@ -13044,8 +13038,8 @@
           <cell r="D48" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E48">
-            <v>1.139</v>
+          <cell r="E48" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="49">
@@ -13055,8 +13049,8 @@
           <cell r="D49" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E49">
-            <v>4.9779999999999998</v>
+          <cell r="E49" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="50">
@@ -13066,8 +13060,8 @@
           <cell r="D50" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E50">
-            <v>102.827</v>
+          <cell r="E50" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="51">
@@ -13077,8 +13071,8 @@
           <cell r="D51" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E51">
-            <v>31.846</v>
+          <cell r="E51" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="52">
@@ -13088,8 +13082,8 @@
           <cell r="D52" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E52">
-            <v>9.9190000000000005</v>
+          <cell r="E52" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="53">
@@ -13099,8 +13093,8 @@
           <cell r="D53" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E53">
-            <v>10.565</v>
+          <cell r="E53" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="54">
@@ -13110,8 +13104,8 @@
           <cell r="D54" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E54">
-            <v>0</v>
+          <cell r="E54" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="55">
@@ -13121,8 +13115,8 @@
           <cell r="D55" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E55">
-            <v>0</v>
+          <cell r="E55" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="56">
@@ -13132,8 +13126,8 @@
           <cell r="D56" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E56">
-            <v>0</v>
+          <cell r="E56" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="57">
@@ -13143,8 +13137,8 @@
           <cell r="D57" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E57">
-            <v>1.4450000000000001</v>
+          <cell r="E57" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="58">
@@ -13154,8 +13148,8 @@
           <cell r="D58" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E58">
-            <v>1.6990000000000001</v>
+          <cell r="E58" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="59">
@@ -13165,8 +13159,8 @@
           <cell r="D59" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E59">
-            <v>0</v>
+          <cell r="E59" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="60">
@@ -13176,8 +13170,8 @@
           <cell r="D60" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E60">
-            <v>0</v>
+          <cell r="E60" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="61">
@@ -13187,8 +13181,8 @@
           <cell r="D61" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E61">
-            <v>1.6639999999999999</v>
+          <cell r="E61" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="62">
@@ -13198,8 +13192,8 @@
           <cell r="D62" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E62">
-            <v>47.015000000000001</v>
+          <cell r="E62" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="63">
@@ -13209,8 +13203,8 @@
           <cell r="D63" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E63">
-            <v>26.21</v>
+          <cell r="E63" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="64">
@@ -13220,8 +13214,8 @@
           <cell r="D64" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E64">
-            <v>46.201999999999998</v>
+          <cell r="E64" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="65">
@@ -13231,8 +13225,8 @@
           <cell r="D65" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E65">
-            <v>0</v>
+          <cell r="E65" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="66">
@@ -13242,8 +13236,8 @@
           <cell r="D66" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E66">
-            <v>1.6120000000000001</v>
+          <cell r="E66" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="67">
@@ -13253,8 +13247,8 @@
           <cell r="D67" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E67">
-            <v>0</v>
+          <cell r="E67" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="68">
@@ -13264,8 +13258,8 @@
           <cell r="D68" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E68">
-            <v>0</v>
+          <cell r="E68" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="69">
@@ -13275,8 +13269,8 @@
           <cell r="D69" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E69">
-            <v>1.0629999999999999</v>
+          <cell r="E69" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="70">
@@ -13286,8 +13280,8 @@
           <cell r="D70" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E70">
-            <v>0.82499999999999996</v>
+          <cell r="E70" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="71">
@@ -13297,8 +13291,8 @@
           <cell r="D71" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E71">
-            <v>1.484</v>
+          <cell r="E71" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="72">
@@ -13308,8 +13302,8 @@
           <cell r="D72" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E72">
-            <v>0</v>
+          <cell r="E72" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="73">
@@ -13319,8 +13313,8 @@
           <cell r="D73" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E73">
-            <v>0</v>
+          <cell r="E73" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="74">
@@ -13330,8 +13324,8 @@
           <cell r="D74" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E74">
-            <v>62.168999999999997</v>
+          <cell r="E74" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="75">
@@ -13341,8 +13335,8 @@
           <cell r="D75" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E75">
-            <v>0.9</v>
+          <cell r="E75" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="76">
@@ -13352,8 +13346,8 @@
           <cell r="D76" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E76">
-            <v>5.4239999999999995</v>
+          <cell r="E76" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="77">
@@ -13363,8 +13357,8 @@
           <cell r="D77" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E77">
-            <v>0</v>
+          <cell r="E77" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="78">
@@ -13374,8 +13368,8 @@
           <cell r="D78" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E78">
-            <v>0</v>
+          <cell r="E78" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="79">
@@ -13385,8 +13379,8 @@
           <cell r="D79" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E79">
-            <v>12.416</v>
+          <cell r="E79" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="80">
@@ -13396,8 +13390,8 @@
           <cell r="D80" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E80">
-            <v>3.1E-2</v>
+          <cell r="E80" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="81">
@@ -13407,8 +13401,8 @@
           <cell r="D81" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E81">
-            <v>97.739000000000004</v>
+          <cell r="E81" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="82">
@@ -13418,8 +13412,8 @@
           <cell r="D82" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E82">
-            <v>0</v>
+          <cell r="E82" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="83">
@@ -13429,8 +13423,8 @@
           <cell r="D83" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E83">
-            <v>0</v>
+          <cell r="E83" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="84">
@@ -13440,8 +13434,8 @@
           <cell r="D84" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E84">
-            <v>0.54900000000000004</v>
+          <cell r="E84" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="85">
@@ -13451,8 +13445,8 @@
           <cell r="D85" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E85">
-            <v>1.9890000000000001</v>
+          <cell r="E85" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="86">
@@ -13462,8 +13456,8 @@
           <cell r="D86" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E86">
-            <v>140.93899999999999</v>
+          <cell r="E86" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="87">
@@ -13473,8 +13467,8 @@
           <cell r="D87" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E87">
-            <v>14.289</v>
+          <cell r="E87" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="88">
@@ -13484,8 +13478,8 @@
           <cell r="D88" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E88">
-            <v>11.059000000000001</v>
+          <cell r="E88" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="89">
@@ -13495,8 +13489,8 @@
           <cell r="D89" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E89">
-            <v>8.5440000000000005</v>
+          <cell r="E89" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="90">
@@ -13506,8 +13500,8 @@
           <cell r="D90" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E90">
-            <v>0</v>
+          <cell r="E90" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="91">
@@ -13517,8 +13511,8 @@
           <cell r="D91" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E91">
-            <v>0</v>
+          <cell r="E91" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="92">
@@ -13528,8 +13522,8 @@
           <cell r="D92" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E92">
-            <v>0</v>
+          <cell r="E92" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="93">
@@ -13539,8 +13533,8 @@
           <cell r="D93" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E93">
-            <v>8.7620000000000005</v>
+          <cell r="E93" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="94">
@@ -13550,8 +13544,8 @@
           <cell r="D94" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E94">
-            <v>5.4829999999999997</v>
+          <cell r="E94" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="95">
@@ -13561,8 +13555,8 @@
           <cell r="D95" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E95">
-            <v>0</v>
+          <cell r="E95" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="96">
@@ -13572,8 +13566,8 @@
           <cell r="D96" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E96">
-            <v>8.76</v>
+          <cell r="E96" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="97">
@@ -13583,8 +13577,8 @@
           <cell r="D97" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E97">
-            <v>9.1</v>
+          <cell r="E97" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="98">
@@ -13594,8 +13588,8 @@
           <cell r="D98" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E98">
-            <v>0</v>
+          <cell r="E98" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="99">
@@ -13605,8 +13599,8 @@
           <cell r="D99" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E99">
-            <v>7.6159999999999997</v>
+          <cell r="E99" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="100">
@@ -13616,8 +13610,8 @@
           <cell r="D100" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E100">
-            <v>0</v>
+          <cell r="E100" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="101">
@@ -13627,8 +13621,8 @@
           <cell r="D101" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E101">
-            <v>0</v>
+          <cell r="E101" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="102">
@@ -13638,8 +13632,8 @@
           <cell r="D102" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E102">
-            <v>0.41099999999999998</v>
+          <cell r="E102" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="103">
@@ -13649,8 +13643,8 @@
           <cell r="D103" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E103">
-            <v>1.7000000000000001E-2</v>
+          <cell r="E103" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="104">
@@ -13660,8 +13654,8 @@
           <cell r="D104" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E104">
-            <v>0.55800000000000005</v>
+          <cell r="E104" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="105">
@@ -13671,8 +13665,8 @@
           <cell r="D105" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E105">
-            <v>5.2160000000000002</v>
+          <cell r="E105" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="106">
@@ -13682,8 +13676,8 @@
           <cell r="D106" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E106">
-            <v>0</v>
+          <cell r="E106" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="107">
@@ -13693,8 +13687,8 @@
           <cell r="D107" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E107">
-            <v>1.498</v>
+          <cell r="E107" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="108">
@@ -13704,8 +13698,8 @@
           <cell r="D108" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E108">
-            <v>0</v>
+          <cell r="E108" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="109">
@@ -13715,8 +13709,8 @@
           <cell r="D109" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E109">
-            <v>0</v>
+          <cell r="E109" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="110">
@@ -13726,8 +13720,8 @@
           <cell r="D110" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E110">
-            <v>62.19</v>
+          <cell r="E110" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="111">
@@ -13737,8 +13731,8 @@
           <cell r="D111" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E111">
-            <v>8.3550000000000004</v>
+          <cell r="E111" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="112">
@@ -13748,8 +13742,8 @@
           <cell r="D112" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E112">
-            <v>36.1</v>
+          <cell r="E112" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="113">
@@ -13759,8 +13753,8 @@
           <cell r="D113" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E113">
-            <v>0</v>
+          <cell r="E113" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="114">
@@ -13770,8 +13764,8 @@
           <cell r="D114" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E114">
-            <v>8.6890000000000001</v>
+          <cell r="E114" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="115">
@@ -13781,8 +13775,8 @@
           <cell r="D115" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E115">
-            <v>29.600999999999999</v>
+          <cell r="E115" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="116">
@@ -13792,8 +13786,8 @@
           <cell r="D116" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E116">
-            <v>0.13700000000000001</v>
+          <cell r="E116" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="117">
@@ -13803,8 +13797,8 @@
           <cell r="D117" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E117">
-            <v>25.576000000000001</v>
+          <cell r="E117" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="118">
@@ -13814,8 +13808,8 @@
           <cell r="D118" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E118">
-            <v>0</v>
+          <cell r="E118" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="119">
@@ -13825,8 +13819,8 @@
           <cell r="D119" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E119">
-            <v>0</v>
+          <cell r="E119" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="120">
@@ -13836,8 +13830,8 @@
           <cell r="D120" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E120">
-            <v>4.6459999999999999</v>
+          <cell r="E120" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="121">
@@ -13847,8 +13841,8 @@
           <cell r="D121" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E121">
-            <v>11.734999999999999</v>
+          <cell r="E121" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="122">
@@ -13858,8 +13852,8 @@
           <cell r="D122" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E122">
-            <v>63.231999999999999</v>
+          <cell r="E122" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="123">
@@ -13869,8 +13863,8 @@
           <cell r="D123" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E123">
-            <v>21.564</v>
+          <cell r="E123" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="124">
@@ -13880,8 +13874,8 @@
           <cell r="D124" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E124">
-            <v>1.323</v>
+          <cell r="E124" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="125">
@@ -13891,8 +13885,8 @@
           <cell r="D125" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E125">
-            <v>3.0070000000000001</v>
+          <cell r="E125" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="126">
@@ -13902,8 +13896,8 @@
           <cell r="D126" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E126">
-            <v>0</v>
+          <cell r="E126" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="127">
@@ -13913,8 +13907,8 @@
           <cell r="D127" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E127">
-            <v>0</v>
+          <cell r="E127" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="128">
@@ -13924,8 +13918,8 @@
           <cell r="D128" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E128">
-            <v>47.887</v>
+          <cell r="E128" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="129">
@@ -13935,8 +13929,8 @@
           <cell r="D129" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E129">
-            <v>0.28999999999999998</v>
+          <cell r="E129" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="130">
@@ -13946,8 +13940,8 @@
           <cell r="D130" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E130">
-            <v>1.119</v>
+          <cell r="E130" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="131">
@@ -13957,8 +13951,8 @@
           <cell r="D131" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E131">
-            <v>0</v>
+          <cell r="E131" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="132">
@@ -13968,8 +13962,8 @@
           <cell r="D132" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E132">
-            <v>4.0000000000000001E-3</v>
+          <cell r="E132" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="133">
@@ -13979,8 +13973,8 @@
           <cell r="D133" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E133">
-            <v>1.2869999999999999</v>
+          <cell r="E133" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="134">
@@ -13990,8 +13984,8 @@
           <cell r="D134" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E134">
-            <v>0.36799999999999999</v>
+          <cell r="E134" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="135">
@@ -14001,8 +13995,8 @@
           <cell r="D135" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E135">
-            <v>3.984</v>
+          <cell r="E135" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="136">
@@ -14012,8 +14006,8 @@
           <cell r="D136" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E136">
-            <v>0</v>
+          <cell r="E136" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="137">
@@ -14023,8 +14017,8 @@
           <cell r="D137" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E137">
-            <v>0</v>
+          <cell r="E137" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="138">
@@ -14034,8 +14028,8 @@
           <cell r="D138" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E138">
-            <v>0</v>
+          <cell r="E138" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="139">
@@ -14045,8 +14039,8 @@
           <cell r="D139" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E139">
-            <v>0</v>
+          <cell r="E139" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="140">
@@ -14056,8 +14050,8 @@
           <cell r="D140" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E140">
-            <v>23.776</v>
+          <cell r="E140" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="141">
@@ -14067,8 +14061,8 @@
           <cell r="D141" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E141">
-            <v>3.5870000000000002</v>
+          <cell r="E141" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="142">
@@ -14078,8 +14072,8 @@
           <cell r="D142" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E142">
-            <v>0.94099999999999995</v>
+          <cell r="E142" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="143">
@@ -14089,8 +14083,8 @@
           <cell r="D143" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E143">
-            <v>5.08</v>
+          <cell r="E143" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="144">
@@ -14100,8 +14094,8 @@
           <cell r="D144" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E144">
-            <v>0</v>
+          <cell r="E144" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="145">
@@ -14111,8 +14105,8 @@
           <cell r="D145" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E145">
-            <v>0</v>
+          <cell r="E145" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="146">
@@ -14122,8 +14116,8 @@
           <cell r="D146" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E146">
-            <v>0</v>
+          <cell r="E146" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="147">
@@ -14133,8 +14127,8 @@
           <cell r="D147" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E147">
-            <v>8.0000000000000002E-3</v>
+          <cell r="E147" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="148">
@@ -14144,8 +14138,8 @@
           <cell r="D148" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E148">
-            <v>8.3000000000000004E-2</v>
+          <cell r="E148" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="149">
@@ -14155,8 +14149,8 @@
           <cell r="D149" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E149">
-            <v>0</v>
+          <cell r="E149" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="150">
@@ -14166,8 +14160,8 @@
           <cell r="D150" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E150">
-            <v>0</v>
+          <cell r="E150" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="151">
@@ -14177,8 +14171,8 @@
           <cell r="D151" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E151">
-            <v>0.05</v>
+          <cell r="E151" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="152">
@@ -14188,8 +14182,8 @@
           <cell r="D152" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E152">
-            <v>0</v>
+          <cell r="E152" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="153">
@@ -14199,8 +14193,8 @@
           <cell r="D153" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E153">
-            <v>0</v>
+          <cell r="E153" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="154">
@@ -14210,8 +14204,8 @@
           <cell r="D154" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E154">
-            <v>0</v>
+          <cell r="E154" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="155">
@@ -14221,8 +14215,8 @@
           <cell r="D155" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E155">
-            <v>0</v>
+          <cell r="E155" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="156">
@@ -14232,8 +14226,8 @@
           <cell r="D156" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E156">
-            <v>0</v>
+          <cell r="E156" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="157">
@@ -14243,8 +14237,8 @@
           <cell r="D157" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E157">
-            <v>0</v>
+          <cell r="E157" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="158">
@@ -14254,8 +14248,8 @@
           <cell r="D158" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E158">
-            <v>0</v>
+          <cell r="E158" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="159">
@@ -14265,8 +14259,8 @@
           <cell r="D159" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E159">
-            <v>0</v>
+          <cell r="E159" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="160">
@@ -14276,8 +14270,8 @@
           <cell r="D160" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E160">
-            <v>0</v>
+          <cell r="E160" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="161">
@@ -14287,8 +14281,8 @@
           <cell r="D161" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E161">
-            <v>0</v>
+          <cell r="E161" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="162">
@@ -14298,8 +14292,8 @@
           <cell r="D162" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E162">
-            <v>0</v>
+          <cell r="E162" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="163">
@@ -14309,8 +14303,8 @@
           <cell r="D163" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E163">
-            <v>0</v>
+          <cell r="E163" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="164">
@@ -14320,8 +14314,8 @@
           <cell r="D164" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E164">
-            <v>3.9689999999999999</v>
+          <cell r="E164" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="165">
@@ -14331,8 +14325,8 @@
           <cell r="D165" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E165">
-            <v>0.105</v>
+          <cell r="E165" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="166">
@@ -14342,8 +14336,8 @@
           <cell r="D166" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E166">
-            <v>0</v>
+          <cell r="E166" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="167">
@@ -14353,8 +14347,8 @@
           <cell r="D167" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E167">
-            <v>0</v>
+          <cell r="E167" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="168">
@@ -14364,8 +14358,8 @@
           <cell r="D168" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E168">
-            <v>4.0000000000000001E-3</v>
+          <cell r="E168" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="169">
@@ -14375,8 +14369,8 @@
           <cell r="D169" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E169">
-            <v>3.9940000000000002</v>
+          <cell r="E169" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="170">
@@ -14386,8 +14380,8 @@
           <cell r="D170" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E170">
-            <v>9.4049999999999994</v>
+          <cell r="E170" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="171">
@@ -14397,8 +14391,8 @@
           <cell r="D171" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E171">
-            <v>8.3480000000000008</v>
+          <cell r="E171" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="172">
@@ -14408,8 +14402,8 @@
           <cell r="D172" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E172">
-            <v>0</v>
+          <cell r="E172" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="173">
@@ -14419,8 +14413,8 @@
           <cell r="D173" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E173">
-            <v>0</v>
+          <cell r="E173" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="174">
@@ -14430,8 +14424,8 @@
           <cell r="D174" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E174">
-            <v>3.5000000000000003E-2</v>
+          <cell r="E174" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="175">
@@ -14441,8 +14435,8 @@
           <cell r="D175" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E175">
-            <v>0</v>
+          <cell r="E175" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="176">
@@ -14452,8 +14446,8 @@
           <cell r="D176" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E176">
-            <v>48.439</v>
+          <cell r="E176" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="177">
@@ -14463,8 +14457,8 @@
           <cell r="D177" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E177">
-            <v>19.098000000000003</v>
+          <cell r="E177" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="178">
@@ -14474,8 +14468,8 @@
           <cell r="D178" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E178">
-            <v>7.6959999999999997</v>
+          <cell r="E178" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="179">
@@ -14485,8 +14479,8 @@
           <cell r="D179" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E179">
-            <v>7.0530000000000008</v>
+          <cell r="E179" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="180">
@@ -14496,8 +14490,8 @@
           <cell r="D180" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E180">
-            <v>0</v>
+          <cell r="E180" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="181">
@@ -14507,8 +14501,8 @@
           <cell r="D181" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E181">
-            <v>0</v>
+          <cell r="E181" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="182">
@@ -14518,8 +14512,8 @@
           <cell r="D182" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E182">
-            <v>0</v>
+          <cell r="E182" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="183">
@@ -14529,8 +14523,8 @@
           <cell r="D183" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E183">
-            <v>0.59099999999999997</v>
+          <cell r="E183" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="184">
@@ -14540,8 +14534,8 @@
           <cell r="D184" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E184">
-            <v>0.124</v>
+          <cell r="E184" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="185">
@@ -14551,8 +14545,8 @@
           <cell r="D185" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E185">
-            <v>0</v>
+          <cell r="E185" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="186">
@@ -14562,8 +14556,8 @@
           <cell r="D186" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E186">
-            <v>0</v>
+          <cell r="E186" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="187">
@@ -14573,8 +14567,8 @@
           <cell r="D187" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E187">
-            <v>2.8109999999999999</v>
+          <cell r="E187" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="188">
@@ -14584,8 +14578,8 @@
           <cell r="D188" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E188">
-            <v>0</v>
+          <cell r="E188" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="189">
@@ -14595,8 +14589,8 @@
           <cell r="D189" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E189">
-            <v>4.0369999999999999</v>
+          <cell r="E189" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="190">
@@ -14606,8 +14600,8 @@
           <cell r="D190" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E190">
-            <v>2.1469999999999998</v>
+          <cell r="E190" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="191">
@@ -14617,8 +14611,8 @@
           <cell r="D191" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E191">
-            <v>0</v>
+          <cell r="E191" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="192">
@@ -14628,8 +14622,8 @@
           <cell r="D192" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E192">
-            <v>0</v>
+          <cell r="E192" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="193">
@@ -14639,8 +14633,8 @@
           <cell r="D193" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E193">
-            <v>0</v>
+          <cell r="E193" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="194">
@@ -14650,8 +14644,8 @@
           <cell r="D194" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E194">
-            <v>9.8109999999999999</v>
+          <cell r="E194" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="195">
@@ -14661,8 +14655,8 @@
           <cell r="D195" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E195">
-            <v>3.62</v>
+          <cell r="E195" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="196">
@@ -14672,8 +14666,8 @@
           <cell r="D196" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E196">
-            <v>1.1259999999999999</v>
+          <cell r="E196" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="197">
@@ -14683,8 +14677,8 @@
           <cell r="D197" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E197">
-            <v>0.01</v>
+          <cell r="E197" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="198">
@@ -14694,8 +14688,8 @@
           <cell r="D198" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E198">
-            <v>0</v>
+          <cell r="E198" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="199">
@@ -14705,8 +14699,8 @@
           <cell r="D199" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E199">
-            <v>0</v>
+          <cell r="E199" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="200">
@@ -14716,8 +14710,8 @@
           <cell r="D200" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E200">
-            <v>0</v>
+          <cell r="E200" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="201">
@@ -14727,8 +14721,8 @@
           <cell r="D201" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E201">
-            <v>0</v>
+          <cell r="E201" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="202">
@@ -14738,8 +14732,8 @@
           <cell r="D202" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E202">
-            <v>2.1000000000000001E-2</v>
+          <cell r="E202" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="203">
@@ -14749,8 +14743,8 @@
           <cell r="D203" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E203">
-            <v>0</v>
+          <cell r="E203" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="204">
@@ -14760,8 +14754,8 @@
           <cell r="D204" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E204">
-            <v>0</v>
+          <cell r="E204" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="205">
@@ -14771,8 +14765,8 @@
           <cell r="D205" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E205">
-            <v>7.423</v>
+          <cell r="E205" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="206">
@@ -14782,8 +14776,8 @@
           <cell r="D206" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E206">
-            <v>14.486000000000001</v>
+          <cell r="E206" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="207">
@@ -14793,8 +14787,8 @@
           <cell r="D207" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E207">
-            <v>0</v>
+          <cell r="E207" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="208">
@@ -14804,8 +14798,8 @@
           <cell r="D208" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E208">
-            <v>0</v>
+          <cell r="E208" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="209">
@@ -14815,8 +14809,8 @@
           <cell r="D209" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E209">
-            <v>0</v>
+          <cell r="E209" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="210">
@@ -14826,8 +14820,8 @@
           <cell r="D210" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E210">
-            <v>1E-3</v>
+          <cell r="E210" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="211">
@@ -14837,8 +14831,8 @@
           <cell r="D211" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E211">
-            <v>0</v>
+          <cell r="E211" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="212">
@@ -14848,8 +14842,8 @@
           <cell r="D212" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E212">
-            <v>2.4670000000000001</v>
+          <cell r="E212" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="213">
@@ -14859,8 +14853,8 @@
           <cell r="D213" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E213">
-            <v>1.641</v>
+          <cell r="E213" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="214">
@@ -14870,8 +14864,8 @@
           <cell r="D214" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E214">
-            <v>3.952</v>
+          <cell r="E214" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="215">
@@ -14881,8 +14875,8 @@
           <cell r="D215" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E215">
-            <v>5.2380000000000004</v>
+          <cell r="E215" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="216">
@@ -14892,8 +14886,8 @@
           <cell r="D216" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E216">
-            <v>0</v>
+          <cell r="E216" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="217">
@@ -14903,8 +14897,8 @@
           <cell r="D217" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E217">
-            <v>0</v>
+          <cell r="E217" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="218">
@@ -14914,8 +14908,8 @@
           <cell r="D218" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E218">
-            <v>0</v>
+          <cell r="E218" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="219">
@@ -14925,8 +14919,8 @@
           <cell r="D219" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E219">
-            <v>2.1999999999999999E-2</v>
+          <cell r="E219" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="220">
@@ -14936,8 +14930,8 @@
           <cell r="D220" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E220">
-            <v>0</v>
+          <cell r="E220" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="221">
@@ -14947,8 +14941,8 @@
           <cell r="D221" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E221">
-            <v>0</v>
+          <cell r="E221" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="222">
@@ -14958,8 +14952,8 @@
           <cell r="D222" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E222">
-            <v>0</v>
+          <cell r="E222" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="223">
@@ -14969,8 +14963,8 @@
           <cell r="D223" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E223">
-            <v>0.16700000000000001</v>
+          <cell r="E223" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="224">
@@ -14980,8 +14974,8 @@
           <cell r="D224" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E224">
-            <v>0</v>
+          <cell r="E224" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="225">
@@ -14991,8 +14985,8 @@
           <cell r="D225" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E225">
-            <v>0</v>
+          <cell r="E225" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="226">
@@ -15002,8 +14996,8 @@
           <cell r="D226" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E226">
-            <v>9.536999999999999</v>
+          <cell r="E226" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="227">
@@ -15013,8 +15007,8 @@
           <cell r="D227" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E227">
-            <v>0</v>
+          <cell r="E227" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="228">
@@ -15024,8 +15018,8 @@
           <cell r="D228" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E228">
-            <v>0</v>
+          <cell r="E228" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="229">
@@ -15035,8 +15029,8 @@
           <cell r="D229" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E229">
-            <v>0</v>
+          <cell r="E229" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="230">
@@ -15046,8 +15040,8 @@
           <cell r="D230" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E230">
-            <v>0</v>
+          <cell r="E230" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="231">
@@ -15057,8 +15051,8 @@
           <cell r="D231" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E231">
-            <v>3.9E-2</v>
+          <cell r="E231" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="232">
@@ -15068,8 +15062,8 @@
           <cell r="D232" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E232">
-            <v>0.46400000000000002</v>
+          <cell r="E232" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="233">
@@ -15079,8 +15073,8 @@
           <cell r="D233" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E233">
-            <v>3.3000000000000002E-2</v>
+          <cell r="E233" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="234">
@@ -15090,8 +15084,8 @@
           <cell r="D234" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E234">
-            <v>0</v>
+          <cell r="E234" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="235">
@@ -15101,8 +15095,8 @@
           <cell r="D235" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E235">
-            <v>0</v>
+          <cell r="E235" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="236">
@@ -15112,8 +15106,8 @@
           <cell r="D236" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E236">
-            <v>22.8</v>
+          <cell r="E236" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="237">
@@ -15123,8 +15117,8 @@
           <cell r="D237" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E237">
-            <v>0</v>
+          <cell r="E237" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="238">
@@ -15134,8 +15128,8 @@
           <cell r="D238" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E238">
-            <v>12.743</v>
+          <cell r="E238" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="239">
@@ -15145,8 +15139,8 @@
           <cell r="D239" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E239">
-            <v>0</v>
+          <cell r="E239" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="240">
@@ -15156,8 +15150,8 @@
           <cell r="D240" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E240">
-            <v>3.0000000000000001E-3</v>
+          <cell r="E240" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="241">
@@ -15167,8 +15161,8 @@
           <cell r="D241" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E241">
-            <v>5.6000000000000001E-2</v>
+          <cell r="E241" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="242">
@@ -15178,8 +15172,8 @@
           <cell r="D242" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E242">
-            <v>4.63</v>
+          <cell r="E242" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="243">
@@ -15189,8 +15183,8 @@
           <cell r="D243" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E243">
-            <v>10.462999999999999</v>
+          <cell r="E243" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="244">
@@ -15200,8 +15194,8 @@
           <cell r="D244" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E244">
-            <v>4.8659999999999997</v>
+          <cell r="E244" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="245">
@@ -15211,8 +15205,8 @@
           <cell r="D245" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E245">
-            <v>0</v>
+          <cell r="E245" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="246">
@@ -15222,8 +15216,8 @@
           <cell r="D246" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E246">
-            <v>4.8000000000000001E-2</v>
+          <cell r="E246" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="247">
@@ -15233,8 +15227,8 @@
           <cell r="D247" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E247">
-            <v>0.10999999999999999</v>
+          <cell r="E247" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="248">
@@ -15244,8 +15238,8 @@
           <cell r="D248" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E248">
-            <v>5.032</v>
+          <cell r="E248" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="249">
@@ -15255,8 +15249,8 @@
           <cell r="D249" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E249">
-            <v>5.2969999999999997</v>
+          <cell r="E249" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="250">
@@ -15266,8 +15260,8 @@
           <cell r="D250" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E250">
-            <v>1.147</v>
+          <cell r="E250" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="251">
@@ -15277,8 +15271,8 @@
           <cell r="D251" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E251">
-            <v>9.9759999999999991</v>
+          <cell r="E251" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="252">
@@ -15288,8 +15282,8 @@
           <cell r="D252" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E252">
-            <v>0</v>
+          <cell r="E252" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="253">
@@ -15299,8 +15293,8 @@
           <cell r="D253" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E253">
-            <v>0</v>
+          <cell r="E253" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="254">
@@ -15310,8 +15304,8 @@
           <cell r="D254" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E254">
-            <v>0</v>
+          <cell r="E254" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="255">
@@ -15321,8 +15315,8 @@
           <cell r="D255" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E255">
-            <v>1.2E-2</v>
+          <cell r="E255" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="256">
@@ -15332,8 +15326,8 @@
           <cell r="D256" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E256">
-            <v>3.4769999999999999</v>
+          <cell r="E256" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="257">
@@ -15343,8 +15337,8 @@
           <cell r="D257" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E257">
-            <v>0</v>
+          <cell r="E257" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="258">
@@ -15354,8 +15348,8 @@
           <cell r="D258" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E258">
-            <v>0</v>
+          <cell r="E258" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="259">
@@ -15365,8 +15359,8 @@
           <cell r="D259" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E259">
-            <v>4.8000000000000001E-2</v>
+          <cell r="E259" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="260">
@@ -15376,8 +15370,8 @@
           <cell r="D260" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E260">
-            <v>0</v>
+          <cell r="E260" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="261">
@@ -15387,8 +15381,8 @@
           <cell r="D261" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E261">
-            <v>0</v>
+          <cell r="E261" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="262">
@@ -15398,8 +15392,8 @@
           <cell r="D262" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E262">
-            <v>0</v>
+          <cell r="E262" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="263">
@@ -15409,8 +15403,8 @@
           <cell r="D263" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E263">
-            <v>0</v>
+          <cell r="E263" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="264">
@@ -15420,8 +15414,8 @@
           <cell r="D264" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E264">
-            <v>0</v>
+          <cell r="E264" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="265">
@@ -15431,8 +15425,8 @@
           <cell r="D265" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E265">
-            <v>0</v>
+          <cell r="E265" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="266">
@@ -15442,8 +15436,8 @@
           <cell r="D266" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E266">
-            <v>1.8480000000000001</v>
+          <cell r="E266" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="267">
@@ -15453,8 +15447,8 @@
           <cell r="D267" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E267">
-            <v>1E-3</v>
+          <cell r="E267" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="268">
@@ -15464,8 +15458,8 @@
           <cell r="D268" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E268">
-            <v>3.0000000000000001E-3</v>
+          <cell r="E268" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="269">
@@ -15475,8 +15469,8 @@
           <cell r="D269" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E269">
-            <v>1.9E-2</v>
+          <cell r="E269" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="270">
@@ -15486,8 +15480,8 @@
           <cell r="D270" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E270">
-            <v>0</v>
+          <cell r="E270" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="271">
@@ -15497,8 +15491,8 @@
           <cell r="D271" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E271">
-            <v>0</v>
+          <cell r="E271" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="272">
@@ -15508,8 +15502,8 @@
           <cell r="D272" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E272">
-            <v>0</v>
+          <cell r="E272" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="273">
@@ -15519,8 +15513,8 @@
           <cell r="D273" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E273">
-            <v>0</v>
+          <cell r="E273" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="274">
@@ -15530,8 +15524,8 @@
           <cell r="D274" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E274">
-            <v>0.83299999999999996</v>
+          <cell r="E274" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="275">
@@ -15541,8 +15535,8 @@
           <cell r="D275" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E275">
-            <v>0</v>
+          <cell r="E275" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="276">
@@ -15552,8 +15546,8 @@
           <cell r="D276" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E276">
-            <v>0</v>
+          <cell r="E276" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="277">
@@ -15563,8 +15557,8 @@
           <cell r="D277" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E277">
-            <v>0.20699999999999999</v>
+          <cell r="E277" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="278">
@@ -15574,8 +15568,8 @@
           <cell r="D278" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E278">
-            <v>0</v>
+          <cell r="E278" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="279">
@@ -15585,8 +15579,8 @@
           <cell r="D279" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E279">
-            <v>0</v>
+          <cell r="E279" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="280">
@@ -15596,8 +15590,8 @@
           <cell r="D280" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E280">
-            <v>0</v>
+          <cell r="E280" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="281">
@@ -15607,8 +15601,8 @@
           <cell r="D281" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E281">
-            <v>0</v>
+          <cell r="E281" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="282">
@@ -15618,8 +15612,8 @@
           <cell r="D282" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E282">
-            <v>0.13700000000000001</v>
+          <cell r="E282" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="283">
@@ -15629,8 +15623,8 @@
           <cell r="D283" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E283">
-            <v>0.53200000000000003</v>
+          <cell r="E283" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="284">
@@ -15640,8 +15634,8 @@
           <cell r="D284" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E284">
-            <v>0.123</v>
+          <cell r="E284" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="285">
@@ -15651,8 +15645,8 @@
           <cell r="D285" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E285">
-            <v>0.14399999999999999</v>
+          <cell r="E285" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="286">
@@ -15662,8 +15656,8 @@
           <cell r="D286" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E286">
-            <v>3.552</v>
+          <cell r="E286" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="287">
@@ -15673,8 +15667,8 @@
           <cell r="D287" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E287">
-            <v>1.2E-2</v>
+          <cell r="E287" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="288">
@@ -15684,8 +15678,8 @@
           <cell r="D288" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E288">
-            <v>0</v>
+          <cell r="E288" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="289">
@@ -15695,8 +15689,8 @@
           <cell r="D289" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E289">
-            <v>0</v>
+          <cell r="E289" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="290">
@@ -15706,8 +15700,8 @@
           <cell r="D290" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E290">
-            <v>57.845999999999997</v>
+          <cell r="E290" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="291">
@@ -15717,8 +15711,8 @@
           <cell r="D291" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E291">
-            <v>22.574999999999999</v>
+          <cell r="E291" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="292">
@@ -15728,8 +15722,8 @@
           <cell r="D292" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E292">
-            <v>37.756</v>
+          <cell r="E292" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="293">
@@ -15739,8 +15733,8 @@
           <cell r="D293" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E293">
-            <v>0</v>
+          <cell r="E293" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="294">
@@ -15750,8 +15744,8 @@
           <cell r="D294" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E294">
-            <v>8.9999999999999993E-3</v>
+          <cell r="E294" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="295">
@@ -15761,8 +15755,8 @@
           <cell r="D295" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E295">
-            <v>3.5019999999999998</v>
+          <cell r="E295" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="296">
@@ -15772,8 +15766,8 @@
           <cell r="D296" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E296">
-            <v>1.073</v>
+          <cell r="E296" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="297">
@@ -15783,8 +15777,8 @@
           <cell r="D297" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E297">
-            <v>0</v>
+          <cell r="E297" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="298">
@@ -15794,8 +15788,8 @@
           <cell r="D298" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E298">
-            <v>0.76600000000000001</v>
+          <cell r="E298" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="299">
@@ -15805,8 +15799,8 @@
           <cell r="D299" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E299">
-            <v>0</v>
+          <cell r="E299" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="300">
@@ -15816,8 +15810,8 @@
           <cell r="D300" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E300">
-            <v>0.876</v>
+          <cell r="E300" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="301">
@@ -15827,8 +15821,8 @@
           <cell r="D301" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E301">
-            <v>0</v>
+          <cell r="E301" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="302">
@@ -15838,8 +15832,8 @@
           <cell r="D302" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E302">
-            <v>0.75800000000000001</v>
+          <cell r="E302" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="303">
@@ -15849,8 +15843,8 @@
           <cell r="D303" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E303">
-            <v>1.3080000000000001</v>
+          <cell r="E303" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="304">
@@ -15860,8 +15854,8 @@
           <cell r="D304" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E304">
-            <v>1.133</v>
+          <cell r="E304" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="305">
@@ -15871,8 +15865,8 @@
           <cell r="D305" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E305">
-            <v>13.785</v>
+          <cell r="E305" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="306">
@@ -15882,8 +15876,8 @@
           <cell r="D306" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E306">
-            <v>0</v>
+          <cell r="E306" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="307">
@@ -15893,8 +15887,8 @@
           <cell r="D307" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E307">
-            <v>0</v>
+          <cell r="E307" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="308">
@@ -15904,8 +15898,8 @@
           <cell r="D308" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E308">
-            <v>0</v>
+          <cell r="E308" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="309">
@@ -15915,8 +15909,8 @@
           <cell r="D309" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E309">
-            <v>23.646000000000001</v>
+          <cell r="E309" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="310">
@@ -15926,8 +15920,8 @@
           <cell r="D310" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E310">
-            <v>14.035</v>
+          <cell r="E310" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="311">
@@ -15937,8 +15931,8 @@
           <cell r="D311" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E311">
-            <v>0</v>
+          <cell r="E311" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="312">
@@ -15948,8 +15942,8 @@
           <cell r="D312" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E312">
-            <v>8.6999999999999994E-2</v>
+          <cell r="E312" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="313">
@@ -15959,8 +15953,8 @@
           <cell r="D313" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E313">
-            <v>1.3049999999999999</v>
+          <cell r="E313" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="314">
@@ -15970,8 +15964,8 @@
           <cell r="D314" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E314">
-            <v>0.52400000000000002</v>
+          <cell r="E314" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="315">
@@ -15981,8 +15975,8 @@
           <cell r="D315" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E315">
-            <v>4.6020000000000003</v>
+          <cell r="E315" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="316">
@@ -15992,8 +15986,8 @@
           <cell r="D316" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E316">
-            <v>0</v>
+          <cell r="E316" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="317">
@@ -16003,8 +15997,8 @@
           <cell r="D317" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E317">
-            <v>0</v>
+          <cell r="E317" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="318">
@@ -16014,8 +16008,8 @@
           <cell r="D318" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E318">
-            <v>0.16800000000000001</v>
+          <cell r="E318" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="319">
@@ -16025,8 +16019,8 @@
           <cell r="D319" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E319">
-            <v>0.17200000000000001</v>
+          <cell r="E319" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="320">
@@ -16036,8 +16030,8 @@
           <cell r="D320" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E320">
-            <v>5.6639999999999997</v>
+          <cell r="E320" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="321">
@@ -16047,8 +16041,8 @@
           <cell r="D321" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E321">
-            <v>4.2279999999999998</v>
+          <cell r="E321" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="322">
@@ -16058,8 +16052,8 @@
           <cell r="D322" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E322">
-            <v>4.4109999999999996</v>
+          <cell r="E322" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="323">
@@ -16069,8 +16063,8 @@
           <cell r="D323" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E323">
-            <v>4.6280000000000001</v>
+          <cell r="E323" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="324">
@@ -16080,8 +16074,8 @@
           <cell r="D324" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E324">
-            <v>0</v>
+          <cell r="E324" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="325">
@@ -16091,8 +16085,8 @@
           <cell r="D325" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E325">
-            <v>0</v>
+          <cell r="E325" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="326">
@@ -16102,8 +16096,8 @@
           <cell r="D326" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E326">
-            <v>0</v>
+          <cell r="E326" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="327">
@@ -16113,8 +16107,8 @@
           <cell r="D327" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E327">
-            <v>0</v>
+          <cell r="E327" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="328">
@@ -16124,8 +16118,8 @@
           <cell r="D328" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E328">
-            <v>0</v>
+          <cell r="E328" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="329">
@@ -16135,8 +16129,8 @@
           <cell r="D329" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E329">
-            <v>0</v>
+          <cell r="E329" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="330">
@@ -16146,8 +16140,8 @@
           <cell r="D330" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E330">
-            <v>5.0000000000000001E-3</v>
+          <cell r="E330" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="331">
@@ -16157,8 +16151,8 @@
           <cell r="D331" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E331">
-            <v>3.1E-2</v>
+          <cell r="E331" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="332">
@@ -16168,8 +16162,8 @@
           <cell r="D332" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E332">
-            <v>0</v>
+          <cell r="E332" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="333">
@@ -16179,8 +16173,8 @@
           <cell r="D333" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E333">
-            <v>0</v>
+          <cell r="E333" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="334">
@@ -16190,8 +16184,8 @@
           <cell r="D334" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E334">
-            <v>0</v>
+          <cell r="E334" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="335">
@@ -16201,8 +16195,8 @@
           <cell r="D335" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E335">
-            <v>0</v>
+          <cell r="E335" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="336">
@@ -16212,8 +16206,8 @@
           <cell r="D336" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E336">
-            <v>0.64800000000000002</v>
+          <cell r="E336" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="337">
@@ -16223,8 +16217,8 @@
           <cell r="D337" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E337">
-            <v>2.9</v>
+          <cell r="E337" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="338">
@@ -16234,8 +16228,8 @@
           <cell r="D338" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E338">
-            <v>0</v>
+          <cell r="E338" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="339">
@@ -16245,8 +16239,8 @@
           <cell r="D339" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E339">
-            <v>0</v>
+          <cell r="E339" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="340">
@@ -16256,8 +16250,8 @@
           <cell r="D340" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E340">
-            <v>0</v>
+          <cell r="E340" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="341">
@@ -16267,8 +16261,8 @@
           <cell r="D341" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E341">
-            <v>0</v>
+          <cell r="E341" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="342">
@@ -16278,8 +16272,8 @@
           <cell r="D342" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E342">
-            <v>0</v>
+          <cell r="E342" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="343">
@@ -16289,8 +16283,8 @@
           <cell r="D343" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E343">
-            <v>0</v>
+          <cell r="E343" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="344">
@@ -16300,8 +16294,8 @@
           <cell r="D344" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E344">
-            <v>27.998000000000001</v>
+          <cell r="E344" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="345">
@@ -16311,8 +16305,8 @@
           <cell r="D345" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E345">
-            <v>1.2430000000000001</v>
+          <cell r="E345" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="346">
@@ -16322,8 +16316,8 @@
           <cell r="D346" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E346">
-            <v>2.3420000000000001</v>
+          <cell r="E346" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="347">
@@ -16333,8 +16327,8 @@
           <cell r="D347" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E347">
-            <v>0</v>
+          <cell r="E347" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="348">
@@ -16344,8 +16338,8 @@
           <cell r="D348" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E348">
-            <v>0.61199999999999999</v>
+          <cell r="E348" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="349">
@@ -16355,8 +16349,8 @@
           <cell r="D349" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E349">
-            <v>0.33500000000000002</v>
+          <cell r="E349" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="350">
@@ -16366,8 +16360,8 @@
           <cell r="D350" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E350">
-            <v>3.7069999999999999</v>
+          <cell r="E350" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="351">
@@ -16377,8 +16371,8 @@
           <cell r="D351" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E351">
-            <v>0</v>
+          <cell r="E351" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="352">
@@ -16388,8 +16382,8 @@
           <cell r="D352" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E352">
-            <v>37.079000000000001</v>
+          <cell r="E352" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="353">
@@ -16399,8 +16393,8 @@
           <cell r="D353" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E353">
-            <v>0</v>
+          <cell r="E353" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="354">
@@ -16410,8 +16404,8 @@
           <cell r="D354" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E354">
-            <v>0</v>
+          <cell r="E354" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="355">
@@ -16421,8 +16415,8 @@
           <cell r="D355" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E355">
-            <v>6.6000000000000003E-2</v>
+          <cell r="E355" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="356">
@@ -16432,8 +16426,8 @@
           <cell r="D356" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E356">
-            <v>0.64600000000000002</v>
+          <cell r="E356" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="357">
@@ -16443,8 +16437,8 @@
           <cell r="D357" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E357">
-            <v>0.39200000000000002</v>
+          <cell r="E357" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="358">
@@ -16454,8 +16448,8 @@
           <cell r="D358" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E358">
-            <v>0.749</v>
+          <cell r="E358" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="359">
@@ -16465,8 +16459,8 @@
           <cell r="D359" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E359">
-            <v>1.3900000000000001</v>
+          <cell r="E359" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="360">
@@ -16476,8 +16470,8 @@
           <cell r="D360" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E360">
-            <v>0</v>
+          <cell r="E360" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="361">
@@ -16487,8 +16481,8 @@
           <cell r="D361" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E361">
-            <v>0</v>
+          <cell r="E361" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="362">
@@ -16498,8 +16492,8 @@
           <cell r="D362" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E362">
-            <v>0</v>
+          <cell r="E362" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="363">
@@ -16509,8 +16503,8 @@
           <cell r="D363" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E363">
-            <v>6.4000000000000001E-2</v>
+          <cell r="E363" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="364">
@@ -16520,8 +16514,8 @@
           <cell r="D364" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E364">
-            <v>7.3860000000000001</v>
+          <cell r="E364" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="365">
@@ -16531,8 +16525,8 @@
           <cell r="D365" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E365">
-            <v>0</v>
+          <cell r="E365" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="366">
@@ -16542,8 +16536,8 @@
           <cell r="D366" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E366">
-            <v>0.158</v>
+          <cell r="E366" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="367">
@@ -16553,8 +16547,8 @@
           <cell r="D367" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E367">
-            <v>1.7749999999999999</v>
+          <cell r="E367" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="368">
@@ -16564,8 +16558,8 @@
           <cell r="D368" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E368">
-            <v>0</v>
+          <cell r="E368" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="369">
@@ -16575,8 +16569,8 @@
           <cell r="D369" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E369">
-            <v>0.42099999999999999</v>
+          <cell r="E369" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="370">
@@ -16586,8 +16580,8 @@
           <cell r="D370" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E370">
-            <v>30.31</v>
+          <cell r="E370" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="371">
@@ -16597,8 +16591,8 @@
           <cell r="D371" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E371">
-            <v>0.55700000000000005</v>
+          <cell r="E371" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="372">
@@ -16608,8 +16602,8 @@
           <cell r="D372" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E372">
-            <v>1.036</v>
+          <cell r="E372" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="373">
@@ -16619,8 +16613,8 @@
           <cell r="D373" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E373">
-            <v>3.6360000000000001</v>
+          <cell r="E373" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="374">
@@ -16630,8 +16624,8 @@
           <cell r="D374" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E374">
-            <v>4.1710000000000003</v>
+          <cell r="E374" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="375">
@@ -16641,8 +16635,8 @@
           <cell r="D375" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E375">
-            <v>0</v>
+          <cell r="E375" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="376">
@@ -16652,8 +16646,8 @@
           <cell r="D376" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E376">
-            <v>0</v>
+          <cell r="E376" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="377">
@@ -16663,8 +16657,8 @@
           <cell r="D377" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E377">
-            <v>0</v>
+          <cell r="E377" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="378">
@@ -16674,8 +16668,8 @@
           <cell r="D378" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E378">
-            <v>0</v>
+          <cell r="E378" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="379">
@@ -16685,8 +16679,8 @@
           <cell r="D379" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E379">
-            <v>0</v>
+          <cell r="E379" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="380">
@@ -16696,8 +16690,8 @@
           <cell r="D380" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E380">
-            <v>15.760999999999999</v>
+          <cell r="E380" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="381">
@@ -16707,8 +16701,8 @@
           <cell r="D381" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E381">
-            <v>0.14699999999999999</v>
+          <cell r="E381" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="382">
@@ -16718,8 +16712,8 @@
           <cell r="D382" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E382">
-            <v>0</v>
+          <cell r="E382" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="383">
@@ -16729,8 +16723,8 @@
           <cell r="D383" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E383">
-            <v>0</v>
+          <cell r="E383" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="384">
@@ -16740,8 +16734,8 @@
           <cell r="D384" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E384">
-            <v>0</v>
+          <cell r="E384" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="385">
@@ -16751,8 +16745,8 @@
           <cell r="D385" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E385">
-            <v>0.52300000000000002</v>
+          <cell r="E385" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="386">
@@ -16762,8 +16756,8 @@
           <cell r="D386" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E386">
-            <v>9.8000000000000004E-2</v>
+          <cell r="E386" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="387">
@@ -16773,8 +16767,8 @@
           <cell r="D387" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E387">
-            <v>0.3</v>
+          <cell r="E387" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="388">
@@ -16784,8 +16778,8 @@
           <cell r="D388" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E388">
-            <v>6.35</v>
+          <cell r="E388" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="389">
@@ -16795,8 +16789,8 @@
           <cell r="D389" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E389">
-            <v>0</v>
+          <cell r="E389" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="390">
@@ -16806,8 +16800,8 @@
           <cell r="D390" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E390">
-            <v>0.40100000000000002</v>
+          <cell r="E390" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="391">
@@ -16817,8 +16811,8 @@
           <cell r="D391" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E391">
-            <v>7.1999999999999995E-2</v>
+          <cell r="E391" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="392">
@@ -16828,8 +16822,8 @@
           <cell r="D392" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E392">
-            <v>4.5190000000000001</v>
+          <cell r="E392" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="393">
@@ -16839,8 +16833,8 @@
           <cell r="D393" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E393">
-            <v>0.60099999999999998</v>
+          <cell r="E393" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="394">
@@ -16850,8 +16844,8 @@
           <cell r="D394" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E394">
-            <v>5.0129999999999999</v>
+          <cell r="E394" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="395">
@@ -16861,8 +16855,8 @@
           <cell r="D395" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E395">
-            <v>2.3290000000000002</v>
+          <cell r="E395" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="396">
@@ -16872,8 +16866,8 @@
           <cell r="D396" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E396">
-            <v>0</v>
+          <cell r="E396" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="397">
@@ -16883,8 +16877,8 @@
           <cell r="D397" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E397">
-            <v>0</v>
+          <cell r="E397" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="398">
@@ -16894,8 +16888,8 @@
           <cell r="D398" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E398">
-            <v>0</v>
+          <cell r="E398" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="399">
@@ -16905,8 +16899,8 @@
           <cell r="D399" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E399">
-            <v>0</v>
+          <cell r="E399" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="400">
@@ -16916,8 +16910,8 @@
           <cell r="D400" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E400">
-            <v>0</v>
+          <cell r="E400" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="401">
@@ -16927,8 +16921,8 @@
           <cell r="D401" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E401">
-            <v>0</v>
+          <cell r="E401" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="402">
@@ -16938,8 +16932,8 @@
           <cell r="D402" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E402">
-            <v>0</v>
+          <cell r="E402" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="403">
@@ -16949,8 +16943,8 @@
           <cell r="D403" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E403">
-            <v>0</v>
+          <cell r="E403" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="404">
@@ -16960,8 +16954,8 @@
           <cell r="D404" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E404">
-            <v>0</v>
+          <cell r="E404" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="405">
@@ -16971,8 +16965,8 @@
           <cell r="D405" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E405">
-            <v>0</v>
+          <cell r="E405" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="406">
@@ -16982,8 +16976,8 @@
           <cell r="D406" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E406">
-            <v>0</v>
+          <cell r="E406" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="407">
@@ -16993,8 +16987,8 @@
           <cell r="D407" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E407">
-            <v>0.28899999999999998</v>
+          <cell r="E407" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="408">
@@ -17004,8 +16998,8 @@
           <cell r="D408" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E408">
-            <v>0</v>
+          <cell r="E408" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="409">
@@ -17015,8 +17009,8 @@
           <cell r="D409" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E409">
-            <v>0.85</v>
+          <cell r="E409" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="410">
@@ -17026,8 +17020,8 @@
           <cell r="D410" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E410">
-            <v>0</v>
+          <cell r="E410" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="411">
@@ -17037,8 +17031,8 @@
           <cell r="D411" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E411">
-            <v>0</v>
+          <cell r="E411" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="412">
@@ -17048,8 +17042,8 @@
           <cell r="D412" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E412">
-            <v>0</v>
+          <cell r="E412" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="413">
@@ -17059,8 +17053,8 @@
           <cell r="D413" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E413">
-            <v>0</v>
+          <cell r="E413" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="414">
@@ -17070,8 +17064,8 @@
           <cell r="D414" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E414">
-            <v>0</v>
+          <cell r="E414" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="415">
@@ -17081,8 +17075,8 @@
           <cell r="D415" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E415">
-            <v>0</v>
+          <cell r="E415" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="416">
@@ -17092,8 +17086,8 @@
           <cell r="D416" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E416">
-            <v>14.59</v>
+          <cell r="E416" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="417">
@@ -17103,8 +17097,8 @@
           <cell r="D417" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E417">
-            <v>2.3279999999999998</v>
+          <cell r="E417" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="418">
@@ -17114,8 +17108,8 @@
           <cell r="D418" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E418">
-            <v>2.5750000000000002</v>
+          <cell r="E418" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="419">
@@ -17125,8 +17119,8 @@
           <cell r="D419" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E419">
-            <v>0</v>
+          <cell r="E419" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="420">
@@ -17136,8 +17130,8 @@
           <cell r="D420" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E420">
-            <v>0</v>
+          <cell r="E420" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="421">
@@ -17147,8 +17141,8 @@
           <cell r="D421" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E421">
-            <v>6.0000000000000001E-3</v>
+          <cell r="E421" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="422">
@@ -17158,8 +17152,8 @@
           <cell r="D422" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E422">
-            <v>1.5529999999999999</v>
+          <cell r="E422" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="423">
@@ -17169,8 +17163,8 @@
           <cell r="D423" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E423">
-            <v>0</v>
+          <cell r="E423" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="424">
@@ -17180,8 +17174,8 @@
           <cell r="D424" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E424">
-            <v>1.022</v>
+          <cell r="E424" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="425">
@@ -17191,8 +17185,8 @@
           <cell r="D425" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E425">
-            <v>0</v>
+          <cell r="E425" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="426">
@@ -17202,8 +17196,8 @@
           <cell r="D426" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E426">
-            <v>0</v>
+          <cell r="E426" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="427">
@@ -17213,8 +17207,8 @@
           <cell r="D427" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E427">
-            <v>0</v>
+          <cell r="E427" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="428">
@@ -17224,8 +17218,8 @@
           <cell r="D428" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E428">
-            <v>0</v>
+          <cell r="E428" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="429">
@@ -17235,8 +17229,8 @@
           <cell r="D429" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E429">
-            <v>0.33200000000000002</v>
+          <cell r="E429" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="430">
@@ -17246,8 +17240,8 @@
           <cell r="D430" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E430">
-            <v>0.185</v>
+          <cell r="E430" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="431">
@@ -17257,8 +17251,8 @@
           <cell r="D431" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E431">
-            <v>6.8000000000000005E-2</v>
+          <cell r="E431" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="432">
@@ -17268,8 +17262,8 @@
           <cell r="D432" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E432">
-            <v>0</v>
+          <cell r="E432" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="433">
@@ -17279,8 +17273,8 @@
           <cell r="D433" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E433">
-            <v>0</v>
+          <cell r="E433" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="434">
@@ -17290,8 +17284,8 @@
           <cell r="D434" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E434">
-            <v>5.3810000000000002</v>
+          <cell r="E434" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="435">
@@ -17301,8 +17295,8 @@
           <cell r="D435" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E435">
-            <v>0.35399999999999998</v>
+          <cell r="E435" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="436">
@@ -17312,8 +17306,8 @@
           <cell r="D436" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E436">
-            <v>4.4459999999999997</v>
+          <cell r="E436" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="437">
@@ -17323,8 +17317,8 @@
           <cell r="D437" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E437">
-            <v>0</v>
+          <cell r="E437" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="438">
@@ -17334,8 +17328,8 @@
           <cell r="D438" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E438">
-            <v>0</v>
+          <cell r="E438" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="439">
@@ -17345,8 +17339,8 @@
           <cell r="D439" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E439">
-            <v>0</v>
+          <cell r="E439" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="440">
@@ -17356,8 +17350,8 @@
           <cell r="D440" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E440">
-            <v>0.50900000000000001</v>
+          <cell r="E440" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="441">
@@ -17367,8 +17361,8 @@
           <cell r="D441" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E441">
-            <v>0</v>
+          <cell r="E441" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="442">
@@ -17378,8 +17372,8 @@
           <cell r="D442" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E442">
-            <v>2.7370000000000001</v>
+          <cell r="E442" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="443">
@@ -17389,8 +17383,8 @@
           <cell r="D443" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E443">
-            <v>0</v>
+          <cell r="E443" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="444">
@@ -17400,8 +17394,8 @@
           <cell r="D444" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E444">
-            <v>0</v>
+          <cell r="E444" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="445">
@@ -17411,8 +17405,8 @@
           <cell r="D445" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E445">
-            <v>0</v>
+          <cell r="E445" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="446">
@@ -17422,8 +17416,8 @@
           <cell r="D446" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E446">
-            <v>0</v>
+          <cell r="E446" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="447">
@@ -17433,8 +17427,8 @@
           <cell r="D447" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E447">
-            <v>0.78200000000000003</v>
+          <cell r="E447" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="448">
@@ -17444,8 +17438,8 @@
           <cell r="D448" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E448">
-            <v>0</v>
+          <cell r="E448" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="449">
@@ -17455,8 +17449,8 @@
           <cell r="D449" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E449">
-            <v>0.03</v>
+          <cell r="E449" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="450">
@@ -17466,8 +17460,8 @@
           <cell r="D450" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E450">
-            <v>0</v>
+          <cell r="E450" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="451">
@@ -17477,8 +17471,8 @@
           <cell r="D451" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E451">
-            <v>0</v>
+          <cell r="E451" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="452">
@@ -17488,8 +17482,8 @@
           <cell r="D452" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E452">
-            <v>15.362</v>
+          <cell r="E452" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="453">
@@ -17499,8 +17493,8 @@
           <cell r="D453" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E453">
-            <v>0.1</v>
+          <cell r="E453" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="454">
@@ -17510,8 +17504,8 @@
           <cell r="D454" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E454">
-            <v>2.952</v>
+          <cell r="E454" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="455">
@@ -17521,8 +17515,8 @@
           <cell r="D455" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E455">
-            <v>0</v>
+          <cell r="E455" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="456">
@@ -17532,8 +17526,8 @@
           <cell r="D456" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E456">
-            <v>1.4999999999999999E-2</v>
+          <cell r="E456" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="457">
@@ -17543,8 +17537,8 @@
           <cell r="D457" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E457">
-            <v>0.68100000000000005</v>
+          <cell r="E457" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="458">
@@ -17554,8 +17548,8 @@
           <cell r="D458" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E458">
-            <v>1.415</v>
+          <cell r="E458" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="459">
@@ -17565,8 +17559,8 @@
           <cell r="D459" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E459">
-            <v>0</v>
+          <cell r="E459" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="460">
@@ -17576,8 +17570,8 @@
           <cell r="D460" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E460">
-            <v>17.514999999999997</v>
+          <cell r="E460" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="461">
@@ -17587,8 +17581,8 @@
           <cell r="D461" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E461">
-            <v>0</v>
+          <cell r="E461" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="462">
@@ -17598,8 +17592,8 @@
           <cell r="D462" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E462">
-            <v>8.9999999999999993E-3</v>
+          <cell r="E462" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="463">
@@ -17609,8 +17603,8 @@
           <cell r="D463" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E463">
-            <v>0</v>
+          <cell r="E463" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="464">
@@ -17620,8 +17614,8 @@
           <cell r="D464" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E464">
-            <v>0</v>
+          <cell r="E464" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="465">
@@ -17631,8 +17625,8 @@
           <cell r="D465" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E465">
-            <v>0.193</v>
+          <cell r="E465" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="466">
@@ -17642,8 +17636,8 @@
           <cell r="D466" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E466">
-            <v>0</v>
+          <cell r="E466" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="467">
@@ -17653,8 +17647,8 @@
           <cell r="D467" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E467">
-            <v>0.01</v>
+          <cell r="E467" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="468">
@@ -17664,8 +17658,8 @@
           <cell r="D468" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E468">
-            <v>0</v>
+          <cell r="E468" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="469">
@@ -17675,8 +17669,8 @@
           <cell r="D469" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E469">
-            <v>0</v>
+          <cell r="E469" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="470">
@@ -17686,8 +17680,8 @@
           <cell r="D470" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E470">
-            <v>0</v>
+          <cell r="E470" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="471">
@@ -17697,8 +17691,8 @@
           <cell r="D471" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E471">
-            <v>2.121</v>
+          <cell r="E471" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="472">
@@ -17708,8 +17702,8 @@
           <cell r="D472" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E472">
-            <v>6.2640000000000002</v>
+          <cell r="E472" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="473">
@@ -17719,8 +17713,8 @@
           <cell r="D473" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E473">
-            <v>0</v>
+          <cell r="E473" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="474">
@@ -17730,8 +17724,8 @@
           <cell r="D474" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E474">
-            <v>0</v>
+          <cell r="E474" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="475">
@@ -17741,8 +17735,8 @@
           <cell r="D475" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E475">
-            <v>0.13900000000000001</v>
+          <cell r="E475" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="476">
@@ -17752,8 +17746,8 @@
           <cell r="D476" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E476">
-            <v>0</v>
+          <cell r="E476" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="477">
@@ -17763,8 +17757,8 @@
           <cell r="D477" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E477">
-            <v>2.1269999999999998</v>
+          <cell r="E477" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="478">
@@ -17774,8 +17768,8 @@
           <cell r="D478" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E478">
-            <v>0</v>
+          <cell r="E478" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="479">
@@ -17785,8 +17779,8 @@
           <cell r="D479" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E479">
-            <v>0</v>
+          <cell r="E479" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="480">
@@ -17796,8 +17790,8 @@
           <cell r="D480" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E480">
-            <v>1.7000000000000001E-2</v>
+          <cell r="E480" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="481">
@@ -17807,8 +17801,8 @@
           <cell r="D481" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E481">
-            <v>0.879</v>
+          <cell r="E481" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="482">
@@ -17818,8 +17812,8 @@
           <cell r="D482" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E482">
-            <v>3.4049999999999998</v>
+          <cell r="E482" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="483">
@@ -17829,8 +17823,8 @@
           <cell r="D483" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E483">
-            <v>0.24199999999999999</v>
+          <cell r="E483" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="484">
@@ -17840,8 +17834,8 @@
           <cell r="D484" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E484">
-            <v>0.129</v>
+          <cell r="E484" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="485">
@@ -17851,8 +17845,8 @@
           <cell r="D485" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E485">
-            <v>2.7999999999999997E-2</v>
+          <cell r="E485" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="486">
@@ -17862,8 +17856,8 @@
           <cell r="D486" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E486">
-            <v>0</v>
+          <cell r="E486" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="487">
@@ -17873,8 +17867,8 @@
           <cell r="D487" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E487">
-            <v>0</v>
+          <cell r="E487" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="488">
@@ -17884,8 +17878,8 @@
           <cell r="D488" t="str">
             <v>bNUC</v>
           </cell>
-          <cell r="E488">
-            <v>5.3959999999999999</v>
+          <cell r="E488" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="489">
@@ -17895,8 +17889,8 @@
           <cell r="D489" t="str">
             <v>bHYDRO</v>
           </cell>
-          <cell r="E489">
-            <v>0.26900000000000002</v>
+          <cell r="E489" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="490">
@@ -17906,8 +17900,8 @@
           <cell r="D490" t="str">
             <v>pHYDRO</v>
           </cell>
-          <cell r="E490">
-            <v>19.010999999999999</v>
+          <cell r="E490" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="491">
@@ -17917,8 +17911,8 @@
           <cell r="D491" t="str">
             <v>bGEO</v>
           </cell>
-          <cell r="E491">
-            <v>0</v>
+          <cell r="E491" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="492">
@@ -17928,8 +17922,8 @@
           <cell r="D492" t="str">
             <v>mSOLAR</v>
           </cell>
-          <cell r="E492">
-            <v>0</v>
+          <cell r="E492" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="493">
@@ -17939,8 +17933,8 @@
           <cell r="D493" t="str">
             <v>mWIND</v>
           </cell>
-          <cell r="E493">
-            <v>0.307</v>
+          <cell r="E493" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="494">
@@ -17950,8 +17944,8 @@
           <cell r="D494" t="str">
             <v>bHC</v>
           </cell>
-          <cell r="E494">
-            <v>0.57699999999999996</v>
+          <cell r="E494" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="495">
@@ -17961,8 +17955,8 @@
           <cell r="D495" t="str">
             <v>mHC</v>
           </cell>
-          <cell r="E495">
-            <v>0</v>
+          <cell r="E495" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="496">
@@ -17972,8 +17966,8 @@
           <cell r="D496" t="str">
             <v>bBC</v>
           </cell>
-          <cell r="E496">
-            <v>20.650000000000002</v>
+          <cell r="E496" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="497">
@@ -17983,8 +17977,8 @@
           <cell r="D497" t="str">
             <v>bOIL</v>
           </cell>
-          <cell r="E497">
-            <v>0</v>
+          <cell r="E497" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="498">
@@ -17994,8 +17988,8 @@
           <cell r="D498" t="str">
             <v>mOIL</v>
           </cell>
-          <cell r="E498">
-            <v>0</v>
+          <cell r="E498" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="499">
@@ -18005,8 +17999,8 @@
           <cell r="D499" t="str">
             <v>pOIL</v>
           </cell>
-          <cell r="E499">
-            <v>6.5000000000000002E-2</v>
+          <cell r="E499" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="500">
@@ -18016,8 +18010,8 @@
           <cell r="D500" t="str">
             <v>bGAS</v>
           </cell>
-          <cell r="E500">
-            <v>0</v>
+          <cell r="E500" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="501">
@@ -18027,8 +18021,8 @@
           <cell r="D501" t="str">
             <v>mGAS</v>
           </cell>
-          <cell r="E501">
-            <v>0.68799999999999994</v>
+          <cell r="E501" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="502">
@@ -18038,8 +18032,8 @@
           <cell r="D502" t="str">
             <v>pGAS</v>
           </cell>
-          <cell r="E502">
-            <v>5.327</v>
+          <cell r="E502" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="503">
@@ -18049,8 +18043,8 @@
           <cell r="D503" t="str">
             <v>bBIO</v>
           </cell>
-          <cell r="E503">
-            <v>5.2999999999999999E-2</v>
+          <cell r="E503" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="504">
@@ -18060,8 +18054,8 @@
           <cell r="D504" t="str">
             <v>bCCS</v>
           </cell>
-          <cell r="E504">
-            <v>0</v>
+          <cell r="E504" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="505">
@@ -18071,18 +18065,12 @@
           <cell r="D505" t="str">
             <v>mCCS</v>
           </cell>
-          <cell r="E505">
-            <v>0</v>
+          <cell r="E505" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>DEU</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -18099,7 +18087,7 @@
       <sheetName val="NEWAGE-TIMES maping"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="C3" t="str">
@@ -23525,16 +23513,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -23826,7 +23814,7 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="19" width="9.28515625" customWidth="1"/>
     <col min="20" max="27" width="8.5703125" customWidth="1"/>
@@ -26688,10 +26676,10 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
@@ -26913,7 +26901,7 @@
       </c>
       <c r="L4" s="5">
         <f>[3]NEWAGE_read!M4</f>
-        <v>711.56600000000003</v>
+        <v>833.79600000000005</v>
       </c>
       <c r="M4" s="5">
         <f>[3]NEWAGE_read!N4</f>
@@ -26941,11 +26929,11 @@
       </c>
       <c r="S4" s="5">
         <f>[3]NEWAGE_read!T4</f>
-        <v>560.52200000000005</v>
+        <v>438.29200000000009</v>
       </c>
       <c r="T4" s="22">
         <f>SUM(B4:S4)</f>
-        <v>3465.6120000000001</v>
+        <v>3465.6120000000005</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27079,7 +27067,7 @@
       </c>
       <c r="L6" s="5">
         <f>[3]NEWAGE_read!M6</f>
-        <v>20.010000000000002</v>
+        <v>20.700000000000003</v>
       </c>
       <c r="M6" s="5">
         <f>[3]NEWAGE_read!N6</f>
@@ -27107,7 +27095,7 @@
       </c>
       <c r="S6" s="5">
         <f>[3]NEWAGE_read!T6</f>
-        <v>15.379999999999999</v>
+        <v>14.69</v>
       </c>
       <c r="T6" s="22">
         <f t="shared" ref="T6:T20" si="0">SUM(B6:S6)</f>
@@ -27243,7 +27231,7 @@
       </c>
       <c r="L8" s="5">
         <f>[3]NEWAGE_read!M8</f>
-        <v>35.347000000000008</v>
+        <v>40.464000000000006</v>
       </c>
       <c r="M8" s="5">
         <f>[3]NEWAGE_read!N8</f>
@@ -27271,7 +27259,7 @@
       </c>
       <c r="S8" s="5">
         <f>[3]NEWAGE_read!T8</f>
-        <v>8.6117000000000008</v>
+        <v>3.4946999999999995</v>
       </c>
       <c r="T8" s="22">
         <f>SUM(B8:S8)</f>
@@ -27325,7 +27313,7 @@
       </c>
       <c r="L9" s="5">
         <f>[3]NEWAGE_read!M9</f>
-        <v>520.34400000000005</v>
+        <v>554.20200000000011</v>
       </c>
       <c r="M9" s="5">
         <f>[3]NEWAGE_read!N9</f>
@@ -27353,11 +27341,11 @@
       </c>
       <c r="S9" s="5">
         <f>[3]NEWAGE_read!T9</f>
-        <v>367.39889999999997</v>
+        <v>357.80579999999998</v>
       </c>
       <c r="T9" s="22">
         <f>SUM(B9:S9)</f>
-        <v>5796.5335560000003</v>
+        <v>5820.7984560000004</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27407,7 +27395,7 @@
       </c>
       <c r="L10" s="5">
         <f>[3]NEWAGE_read!M10</f>
-        <v>90.198899999999895</v>
+        <v>102.48479999999986</v>
       </c>
       <c r="M10" s="5">
         <f>[3]NEWAGE_read!N10</f>
@@ -27435,11 +27423,11 @@
       </c>
       <c r="S10" s="5">
         <f>[3]NEWAGE_read!T10</f>
-        <v>84.753899999999902</v>
+        <v>48.203099999999999</v>
       </c>
       <c r="T10" s="22">
         <f>SUM(B10:S10)</f>
-        <v>2179.9756439999996</v>
+        <v>2155.710744</v>
       </c>
       <c r="V10" t="str">
         <f>IF([3]NEWAGE_read!$F$7=0,"ja","nein")</f>
@@ -27495,7 +27483,7 @@
       </c>
       <c r="L11" s="5">
         <f>[3]NEWAGE_read!M11</f>
-        <v>119.01779999999999</v>
+        <v>158.3109</v>
       </c>
       <c r="M11" s="5">
         <f>[3]NEWAGE_read!N11</f>
@@ -27523,7 +27511,7 @@
       </c>
       <c r="S11" s="5">
         <f>[3]NEWAGE_read!T11</f>
-        <v>139.52069999999998</v>
+        <v>100.2276</v>
       </c>
       <c r="T11" s="22">
         <f t="shared" si="0"/>
@@ -27577,7 +27565,7 @@
       </c>
       <c r="L12" s="5">
         <f>[3]NEWAGE_read!M12</f>
-        <v>108.4</v>
+        <v>144.79999999999998</v>
       </c>
       <c r="M12" s="5">
         <f>[3]NEWAGE_read!N12</f>
@@ -27605,11 +27593,11 @@
       </c>
       <c r="S12" s="5">
         <f>[3]NEWAGE_read!T12</f>
-        <v>104</v>
+        <v>31.2</v>
       </c>
       <c r="T12" s="22">
         <f t="shared" si="0"/>
-        <v>516.67909999999995</v>
+        <v>480.27909999999991</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27659,7 +27647,7 @@
       </c>
       <c r="L13" s="5">
         <f>[3]NEWAGE_read!M13</f>
-        <v>72.396000000000001</v>
+        <v>55.218000000000018</v>
       </c>
       <c r="M13" s="5">
         <f>[3]NEWAGE_read!N13</f>
@@ -27687,11 +27675,11 @@
       </c>
       <c r="S13" s="5">
         <f>[3]NEWAGE_read!T13</f>
-        <v>106.392</v>
+        <v>158.41600000000005</v>
       </c>
       <c r="T13" s="22">
         <f t="shared" si="0"/>
-        <v>322.39515000000006</v>
+        <v>357.24115000000012</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27741,7 +27729,7 @@
       </c>
       <c r="L14" s="5">
         <f>[3]NEWAGE_read!M14</f>
-        <v>48.263999999999996</v>
+        <v>36.812000000000012</v>
       </c>
       <c r="M14" s="5">
         <f>[3]NEWAGE_read!N14</f>
@@ -27769,11 +27757,11 @@
       </c>
       <c r="S14" s="5">
         <f>[3]NEWAGE_read!T14</f>
-        <v>26.597999999999985</v>
+        <v>39.603999999999985</v>
       </c>
       <c r="T14" s="22">
         <f t="shared" si="0"/>
-        <v>175.64574999999999</v>
+        <v>177.19974999999999</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27823,7 +27811,7 @@
       </c>
       <c r="L15" s="5">
         <f>[3]NEWAGE_read!M15</f>
-        <v>200.43539999999999</v>
+        <v>278.19990000000001</v>
       </c>
       <c r="M15" s="5">
         <f>[3]NEWAGE_read!N15</f>
@@ -27851,11 +27839,11 @@
       </c>
       <c r="S15" s="5">
         <f>[3]NEWAGE_read!T15</f>
-        <v>443.11211999999995</v>
+        <v>303.13601999999997</v>
       </c>
       <c r="T15" s="22">
         <f>SUM(B15:S15)</f>
-        <v>2039.085675</v>
+        <v>1976.8740750000002</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27905,7 +27893,7 @@
       </c>
       <c r="L16" s="5">
         <f>[3]NEWAGE_read!M16</f>
-        <v>450.51335999999998</v>
+        <v>488.1175199999999</v>
       </c>
       <c r="M16" s="5">
         <f>[3]NEWAGE_read!N16</f>
@@ -27933,11 +27921,11 @@
       </c>
       <c r="S16" s="5">
         <f>[3]NEWAGE_read!T16</f>
-        <v>205.13394000000008</v>
+        <v>212.73714000000007</v>
       </c>
       <c r="T16" s="22">
         <f>SUM(B16:S16)</f>
-        <v>1832.2455096000003</v>
+        <v>1877.4528696000002</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27987,7 +27975,7 @@
       </c>
       <c r="L17" s="5">
         <f>[3]NEWAGE_read!M17</f>
-        <v>120.34123999999991</v>
+        <v>131.00257999999997</v>
       </c>
       <c r="M17" s="5">
         <f>[3]NEWAGE_read!N17</f>
@@ -28014,11 +28002,11 @@
       </c>
       <c r="S17" s="5">
         <f>[3]NEWAGE_read!T17</f>
-        <v>213.75394000000009</v>
+        <v>220.0968400000001</v>
       </c>
       <c r="T17" s="22">
         <f>SUM(B17:S17)</f>
-        <v>973.47881540000003</v>
+        <v>990.48305540000024</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28068,7 +28056,7 @@
       </c>
       <c r="L18" s="5">
         <f>[3]NEWAGE_read!M18</f>
-        <v>46.36</v>
+        <v>53.38000000000001</v>
       </c>
       <c r="M18" s="5">
         <f>[3]NEWAGE_read!N18</f>
@@ -28096,7 +28084,7 @@
       </c>
       <c r="S18" s="5">
         <f>[3]NEWAGE_read!T18</f>
-        <v>22.339999999999996</v>
+        <v>15.32</v>
       </c>
       <c r="T18" s="22">
         <f>SUM(B18:S18)</f>
@@ -28150,7 +28138,7 @@
       </c>
       <c r="L19" s="5">
         <f>[3]NEWAGE_read!M19</f>
-        <v>8.4827999999999406</v>
+        <v>10.007199999999898</v>
       </c>
       <c r="M19" s="5">
         <f>[3]NEWAGE_read!N19</f>
@@ -28178,11 +28166,11 @@
       </c>
       <c r="S19" s="5">
         <f>[3]NEWAGE_read!T19</f>
-        <v>9.5962800000000925</v>
+        <v>7.6885800000000017</v>
       </c>
       <c r="T19" s="22">
         <f t="shared" si="0"/>
-        <v>88.447969000000114</v>
+        <v>88.064668999999981</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28232,7 +28220,7 @@
       </c>
       <c r="L20" s="27">
         <f>[3]NEWAGE_read!M20</f>
-        <v>5.4617400000000202</v>
+        <v>5.9656800000000203</v>
       </c>
       <c r="M20" s="5">
         <f>[3]NEWAGE_read!N20</f>
@@ -28260,11 +28248,11 @@
       </c>
       <c r="S20" s="5">
         <f>[3]NEWAGE_read!T20</f>
-        <v>2.9281599999999912</v>
+        <v>2.6357600000000048</v>
       </c>
       <c r="T20" s="22">
         <f t="shared" si="0"/>
-        <v>40.527486400000043</v>
+        <v>40.739026400000057</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28314,7 +28302,7 @@
       </c>
       <c r="L21" s="8">
         <f t="shared" si="1"/>
-        <v>2961.9142400000001</v>
+        <v>3318.2365799999998</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" si="1"/>
@@ -28342,11 +28330,11 @@
       </c>
       <c r="S21" s="9">
         <f t="shared" si="1"/>
-        <v>2451.9225000000006</v>
+        <v>2095.4284000000002</v>
       </c>
       <c r="T21" s="24">
         <f>SUM(B21:S21)</f>
-        <v>21900.163455399997</v>
+        <v>21899.991695399996</v>
       </c>
       <c r="U21" s="10">
         <f>SUM(T3:T20)-T21</f>
@@ -28795,7 +28783,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -28967,7 +28955,7 @@
       </c>
       <c r="L4">
         <f>ele_prod!L4</f>
-        <v>711.56600000000003</v>
+        <v>833.79600000000005</v>
       </c>
       <c r="M4">
         <f>ele_prod!M4</f>
@@ -28995,7 +28983,7 @@
       </c>
       <c r="S4">
         <f>ele_prod!S4</f>
-        <v>560.52200000000005</v>
+        <v>438.29200000000009</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -29103,7 +29091,7 @@
       </c>
       <c r="L6">
         <f>ele_prod!L6</f>
-        <v>20.010000000000002</v>
+        <v>20.700000000000003</v>
       </c>
       <c r="M6">
         <f>ele_prod!M6</f>
@@ -29131,7 +29119,7 @@
       </c>
       <c r="S6">
         <f>ele_prod!S6</f>
-        <v>15.379999999999999</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -29239,7 +29227,7 @@
       </c>
       <c r="L8">
         <f>ele_prod!L8</f>
-        <v>35.347000000000008</v>
+        <v>40.464000000000006</v>
       </c>
       <c r="M8">
         <f>ele_prod!M8</f>
@@ -29267,7 +29255,7 @@
       </c>
       <c r="S8">
         <f>ele_prod!S8</f>
-        <v>8.6117000000000008</v>
+        <v>3.4946999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -29307,7 +29295,7 @@
       </c>
       <c r="L9">
         <f>ele_prod!L9</f>
-        <v>520.34400000000005</v>
+        <v>554.20200000000011</v>
       </c>
       <c r="M9">
         <f>ele_prod!M9</f>
@@ -29335,7 +29323,7 @@
       </c>
       <c r="S9">
         <f>ele_prod!S9</f>
-        <v>367.39889999999997</v>
+        <v>357.80579999999998</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -29375,7 +29363,7 @@
       </c>
       <c r="L10">
         <f>ele_prod!L10</f>
-        <v>90.198899999999895</v>
+        <v>102.48479999999986</v>
       </c>
       <c r="M10">
         <f>ele_prod!M10</f>
@@ -29403,7 +29391,7 @@
       </c>
       <c r="S10">
         <f>ele_prod!S10</f>
-        <v>84.753899999999902</v>
+        <v>48.203099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -29443,7 +29431,7 @@
       </c>
       <c r="L11">
         <f>ele_prod!L11</f>
-        <v>119.01779999999999</v>
+        <v>158.3109</v>
       </c>
       <c r="M11">
         <f>ele_prod!M11</f>
@@ -29471,7 +29459,7 @@
       </c>
       <c r="S11">
         <f>ele_prod!S11</f>
-        <v>139.52069999999998</v>
+        <v>100.2276</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -29511,7 +29499,7 @@
       </c>
       <c r="L12">
         <f>ele_prod!L12</f>
-        <v>108.4</v>
+        <v>144.79999999999998</v>
       </c>
       <c r="M12">
         <f>ele_prod!M12</f>
@@ -29539,7 +29527,7 @@
       </c>
       <c r="S12">
         <f>ele_prod!S12</f>
-        <v>104</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -29579,7 +29567,7 @@
       </c>
       <c r="L13">
         <f>ele_prod!L13</f>
-        <v>72.396000000000001</v>
+        <v>55.218000000000018</v>
       </c>
       <c r="M13">
         <f>ele_prod!M13</f>
@@ -29607,7 +29595,7 @@
       </c>
       <c r="S13">
         <f>ele_prod!S13</f>
-        <v>106.392</v>
+        <v>158.41600000000005</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -29647,7 +29635,7 @@
       </c>
       <c r="L14">
         <f>ele_prod!L14</f>
-        <v>48.263999999999996</v>
+        <v>36.812000000000012</v>
       </c>
       <c r="M14">
         <f>ele_prod!M14</f>
@@ -29675,7 +29663,7 @@
       </c>
       <c r="S14">
         <f>ele_prod!S14</f>
-        <v>26.597999999999985</v>
+        <v>39.603999999999985</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -29715,7 +29703,7 @@
       </c>
       <c r="L15">
         <f>ele_prod!L15</f>
-        <v>200.43539999999999</v>
+        <v>278.19990000000001</v>
       </c>
       <c r="M15">
         <f>ele_prod!M15</f>
@@ -29743,7 +29731,7 @@
       </c>
       <c r="S15">
         <f>ele_prod!S15</f>
-        <v>443.11211999999995</v>
+        <v>303.13601999999997</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -29783,7 +29771,7 @@
       </c>
       <c r="L16">
         <f>ele_prod!L16</f>
-        <v>450.51335999999998</v>
+        <v>488.1175199999999</v>
       </c>
       <c r="M16">
         <f>ele_prod!M16</f>
@@ -29811,7 +29799,7 @@
       </c>
       <c r="S16">
         <f>ele_prod!S16</f>
-        <v>205.13394000000008</v>
+        <v>212.73714000000007</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -29851,7 +29839,7 @@
       </c>
       <c r="L17">
         <f>ele_prod!L17</f>
-        <v>120.34123999999991</v>
+        <v>131.00257999999997</v>
       </c>
       <c r="M17">
         <f>ele_prod!M17</f>
@@ -29879,7 +29867,7 @@
       </c>
       <c r="S17">
         <f>ele_prod!S17</f>
-        <v>213.75394000000009</v>
+        <v>220.0968400000001</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -29919,7 +29907,7 @@
       </c>
       <c r="L18">
         <f>ele_prod!L18</f>
-        <v>46.36</v>
+        <v>53.38000000000001</v>
       </c>
       <c r="M18">
         <f>ele_prod!M18</f>
@@ -29947,7 +29935,7 @@
       </c>
       <c r="S18">
         <f>ele_prod!S18</f>
-        <v>22.339999999999996</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -29987,7 +29975,7 @@
       </c>
       <c r="L19">
         <f>ele_prod!L19</f>
-        <v>8.4827999999999406</v>
+        <v>10.007199999999898</v>
       </c>
       <c r="M19">
         <f>ele_prod!M19</f>
@@ -30015,7 +30003,7 @@
       </c>
       <c r="S19">
         <f>ele_prod!S19</f>
-        <v>9.5962800000000925</v>
+        <v>7.6885800000000017</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -30055,7 +30043,7 @@
       </c>
       <c r="L20">
         <f>ele_prod!L20</f>
-        <v>5.4617400000000202</v>
+        <v>5.9656800000000203</v>
       </c>
       <c r="M20">
         <f>ele_prod!M20</f>
@@ -30083,7 +30071,7 @@
       </c>
       <c r="S20">
         <f>ele_prod!S20</f>
-        <v>2.9281599999999912</v>
+        <v>2.6357600000000048</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -30123,7 +30111,7 @@
       </c>
       <c r="L21">
         <f>ele_prod!L21</f>
-        <v>2961.9142400000001</v>
+        <v>3318.2365799999998</v>
       </c>
       <c r="M21">
         <f>ele_prod!M21</f>
@@ -30151,7 +30139,7 @@
       </c>
       <c r="S21">
         <f>ele_prod!S21</f>
-        <v>2451.9225000000006</v>
+        <v>2095.4284000000002</v>
       </c>
     </row>
   </sheetData>
@@ -30167,7 +30155,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -30238,41 +30226,41 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A3)</f>
-        <v>132.91</v>
-      </c>
-      <c r="C3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A3)</f>
-        <v>428.52100000000002</v>
-      </c>
-      <c r="D3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A3)</f>
-        <v>62.168999999999997</v>
-      </c>
-      <c r="G3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G3" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A3)</f>
-        <v>62.19</v>
-      </c>
-      <c r="H3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A3)</f>
-        <v>51.856000000000002</v>
-      </c>
-      <c r="I3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A3)</f>
-        <v>80.646000000000001</v>
-      </c>
-      <c r="J3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A3)</f>
-        <v>84.488</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K3">
         <f>ele_prod!K3</f>
@@ -30315,41 +30303,41 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A4)</f>
-        <v>17.065999999999999</v>
-      </c>
-      <c r="C4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A4)</f>
-        <v>29.911999999999999</v>
-      </c>
-      <c r="D4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A4)</f>
-        <v>17.823</v>
-      </c>
-      <c r="E4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A4)</f>
-        <v>1.4450000000000001</v>
-      </c>
-      <c r="F4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A4)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A4)</f>
-        <v>17.117000000000001</v>
-      </c>
-      <c r="H4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A4)</f>
-        <v>0.40299999999999997</v>
-      </c>
-      <c r="I4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A4)</f>
-        <v>23.2</v>
-      </c>
-      <c r="J4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A4)</f>
-        <v>30.271999999999995</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K4">
         <f>ele_prod!K4</f>
@@ -30357,7 +30345,7 @@
       </c>
       <c r="L4">
         <f>ele_prod!L4</f>
-        <v>711.56600000000003</v>
+        <v>833.79600000000005</v>
       </c>
       <c r="M4">
         <f>ele_prod!M4</f>
@@ -30385,48 +30373,48 @@
       </c>
       <c r="S4">
         <f>ele_prod!S4</f>
-        <v>560.52200000000005</v>
+        <v>438.29200000000009</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A5)</f>
-        <v>11.42</v>
-      </c>
-      <c r="C5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C5" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A5)</f>
-        <v>35.335000000000001</v>
-      </c>
-      <c r="D5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A5)</f>
-        <v>35.177</v>
-      </c>
-      <c r="E5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A5)</f>
-        <v>1.6990000000000001</v>
-      </c>
-      <c r="F5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A5)</f>
-        <v>5.4239999999999995</v>
-      </c>
-      <c r="G5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A5)</f>
-        <v>41.582999999999998</v>
-      </c>
-      <c r="H5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A5)</f>
-        <v>1.202</v>
-      </c>
-      <c r="I5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A5)</f>
-        <v>54.953999999999994</v>
-      </c>
-      <c r="J5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A5)</f>
-        <v>59.010999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K5">
         <f>ele_prod!K5</f>
@@ -30469,41 +30457,41 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A6)</f>
-        <v>4.673</v>
-      </c>
-      <c r="E6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A6)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K6">
         <f>ele_prod!K6</f>
@@ -30511,7 +30499,7 @@
       </c>
       <c r="L6">
         <f>ele_prod!L6</f>
-        <v>20.010000000000002</v>
+        <v>20.700000000000003</v>
       </c>
       <c r="M6">
         <f>ele_prod!M6</f>
@@ -30539,48 +30527,48 @@
       </c>
       <c r="S6">
         <f>ele_prod!S6</f>
-        <v>15.379999999999999</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A7)</f>
-        <v>11.676</v>
-      </c>
-      <c r="C7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A7)</f>
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="D7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A7)</f>
-        <v>1.8740000000000001</v>
-      </c>
-      <c r="E7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A7)</f>
-        <v>17.448999999999998</v>
-      </c>
-      <c r="H7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A7)</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A7)</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="J7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A7)</f>
-        <v>0.877</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K7">
         <f>ele_prod!K7</f>
@@ -30623,41 +30611,41 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A8)</f>
-        <v>37.707000000000001</v>
-      </c>
-      <c r="C8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A8)</f>
-        <v>7.83</v>
-      </c>
-      <c r="D8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A8)</f>
-        <v>9.0440000000000005</v>
-      </c>
-      <c r="E8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A8)</f>
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="F8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A8)</f>
-        <v>12.416</v>
-      </c>
-      <c r="G8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A8)</f>
-        <v>38.701000000000001</v>
-      </c>
-      <c r="H8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H8" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A8)</f>
-        <v>5.3310000000000004</v>
-      </c>
-      <c r="I8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A8)</f>
-        <v>14.213999999999999</v>
-      </c>
-      <c r="J8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A8)</f>
-        <v>5.1020000000000003</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K8">
         <f>ele_prod!K8</f>
@@ -30665,7 +30653,7 @@
       </c>
       <c r="L8">
         <f>ele_prod!L8</f>
-        <v>35.347000000000008</v>
+        <v>40.464000000000006</v>
       </c>
       <c r="M8">
         <f>ele_prod!M8</f>
@@ -30693,48 +30681,48 @@
       </c>
       <c r="S8">
         <f>ele_prod!S8</f>
-        <v>8.6117000000000008</v>
+        <v>3.4946999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A9)</f>
-        <v>16.663</v>
-      </c>
-      <c r="C9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A9)</f>
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A9)</f>
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="E9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A9)</f>
-        <v>47.015000000000001</v>
-      </c>
-      <c r="F9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A9)</f>
-        <v>3.1E-2</v>
-      </c>
-      <c r="G9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A9)</f>
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A9)</f>
-        <v>9.7729999999999997</v>
-      </c>
-      <c r="I9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A9)</f>
-        <v>20.189</v>
-      </c>
-      <c r="J9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A9)</f>
-        <v>8.3829999999999991</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K9">
         <f>ele_prod!K9</f>
@@ -30742,7 +30730,7 @@
       </c>
       <c r="L9">
         <f>ele_prod!L9</f>
-        <v>520.34400000000005</v>
+        <v>554.20200000000011</v>
       </c>
       <c r="M9">
         <f>ele_prod!M9</f>
@@ -30770,48 +30758,48 @@
       </c>
       <c r="S9">
         <f>ele_prod!S9</f>
-        <v>367.39889999999997</v>
+        <v>357.80579999999998</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A10)</f>
-        <v>101.393</v>
-      </c>
-      <c r="C10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="D10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A10)</f>
-        <v>35.643000000000001</v>
-      </c>
-      <c r="E10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A10)</f>
-        <v>26.21</v>
-      </c>
-      <c r="F10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A10)</f>
-        <v>97.739000000000004</v>
-      </c>
-      <c r="G10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A10)</f>
-        <v>33.192</v>
-      </c>
-      <c r="H10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A10)</f>
-        <v>12.332000000000001</v>
-      </c>
-      <c r="I10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A10)</f>
-        <v>14.5</v>
-      </c>
-      <c r="J10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A10)</f>
-        <v>7.45</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K10">
         <f>ele_prod!K10</f>
@@ -30819,7 +30807,7 @@
       </c>
       <c r="L10">
         <f>ele_prod!L10</f>
-        <v>90.198899999999895</v>
+        <v>102.48479999999986</v>
       </c>
       <c r="M10">
         <f>ele_prod!M10</f>
@@ -30847,48 +30835,48 @@
       </c>
       <c r="S10">
         <f>ele_prod!S10</f>
-        <v>84.753899999999902</v>
+        <v>48.203099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A11)</f>
-        <v>148.37299999999999</v>
-      </c>
-      <c r="C11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A11)</f>
-        <v>46.201999999999998</v>
-      </c>
-      <c r="F11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A11)</f>
-        <v>17.315999999999995</v>
-      </c>
-      <c r="J11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A11)</f>
-        <v>115.663</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K11">
         <f>ele_prod!K11</f>
@@ -30896,7 +30884,7 @@
       </c>
       <c r="L11">
         <f>ele_prod!L11</f>
-        <v>119.01779999999999</v>
+        <v>158.3109</v>
       </c>
       <c r="M11">
         <f>ele_prod!M11</f>
@@ -30924,48 +30912,48 @@
       </c>
       <c r="S11">
         <f>ele_prod!S11</f>
-        <v>139.52069999999998</v>
+        <v>100.2276</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A12)</f>
-        <v>0.84600000000000009</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K12">
         <f>ele_prod!K12</f>
@@ -30973,7 +30961,7 @@
       </c>
       <c r="L12">
         <f>ele_prod!L12</f>
-        <v>108.4</v>
+        <v>144.79999999999998</v>
       </c>
       <c r="M12">
         <f>ele_prod!M12</f>
@@ -31001,48 +30989,48 @@
       </c>
       <c r="S12">
         <f>ele_prod!S12</f>
-        <v>104</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A13)</f>
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="C13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A13)</f>
-        <v>1.4E-2</v>
-      </c>
-      <c r="D13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A13)</f>
-        <v>1.139</v>
-      </c>
-      <c r="E13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A13)</f>
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="F13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A13)</f>
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="G13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A13)</f>
-        <v>5.0569999999999995</v>
-      </c>
-      <c r="H13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A13)</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A13)</f>
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="J13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A13)</f>
-        <v>2.2789999999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K13">
         <f>ele_prod!K13</f>
@@ -31050,7 +31038,7 @@
       </c>
       <c r="L13">
         <f>ele_prod!L13</f>
-        <v>72.396000000000001</v>
+        <v>55.218000000000018</v>
       </c>
       <c r="M13">
         <f>ele_prod!M13</f>
@@ -31078,48 +31066,48 @@
       </c>
       <c r="S13">
         <f>ele_prod!S13</f>
-        <v>106.392</v>
+        <v>158.41600000000005</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A14)</f>
-        <v>0</v>
-      </c>
-      <c r="C14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A14)</f>
-        <v>0.42200000000000004</v>
-      </c>
-      <c r="D14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A14)</f>
-        <v>4.9779999999999998</v>
-      </c>
-      <c r="E14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A14)</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A14)</f>
-        <v>1.9890000000000001</v>
-      </c>
-      <c r="G14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A14)</f>
-        <v>11.751999999999999</v>
-      </c>
-      <c r="H14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A14)</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A14)</f>
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="J14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J14" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A14)</f>
-        <v>8.6399999999999988</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K14">
         <f>ele_prod!K14</f>
@@ -31127,7 +31115,7 @@
       </c>
       <c r="L14">
         <f>ele_prod!L14</f>
-        <v>48.263999999999996</v>
+        <v>36.812000000000012</v>
       </c>
       <c r="M14">
         <f>ele_prod!M14</f>
@@ -31155,48 +31143,48 @@
       </c>
       <c r="S14">
         <f>ele_prod!S14</f>
-        <v>26.597999999999985</v>
+        <v>39.603999999999985</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A15)</f>
-        <v>34.417999999999999</v>
-      </c>
-      <c r="C15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A15)</f>
-        <v>102.827</v>
-      </c>
-      <c r="E15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A15)</f>
-        <v>140.93899999999999</v>
-      </c>
-      <c r="G15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A15)</f>
-        <v>63.79</v>
-      </c>
-      <c r="H15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A15)</f>
-        <v>72.215000000000003</v>
-      </c>
-      <c r="I15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A15)</f>
-        <v>20.039000000000001</v>
-      </c>
-      <c r="J15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J15" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A15)</f>
-        <v>18.405000000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K15">
         <f>ele_prod!K15</f>
@@ -31204,7 +31192,7 @@
       </c>
       <c r="L15">
         <f>ele_prod!L15</f>
-        <v>200.43539999999999</v>
+        <v>278.19990000000001</v>
       </c>
       <c r="M15">
         <f>ele_prod!M15</f>
@@ -31232,48 +31220,48 @@
       </c>
       <c r="S15">
         <f>ele_prod!S15</f>
-        <v>443.11211999999995</v>
+        <v>303.13601999999997</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A16)</f>
-        <v>29.34</v>
-      </c>
-      <c r="C16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A16)</f>
-        <v>7.5149999999999997</v>
-      </c>
-      <c r="D16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A16)</f>
-        <v>31.846</v>
-      </c>
-      <c r="E16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A16)</f>
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="F16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A16)</f>
-        <v>14.289</v>
-      </c>
-      <c r="G16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A16)</f>
-        <v>26.78</v>
-      </c>
-      <c r="H16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A16)</f>
-        <v>22.685000000000002</v>
-      </c>
-      <c r="I16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A16)</f>
-        <v>12.049999999999999</v>
-      </c>
-      <c r="J16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A16)</f>
-        <v>7.4579999999999993</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K16">
         <f>ele_prod!K16</f>
@@ -31281,7 +31269,7 @@
       </c>
       <c r="L16">
         <f>ele_prod!L16</f>
-        <v>450.51335999999998</v>
+        <v>488.1175199999999</v>
       </c>
       <c r="M16">
         <f>ele_prod!M16</f>
@@ -31309,48 +31297,48 @@
       </c>
       <c r="S16">
         <f>ele_prod!S16</f>
-        <v>205.13394000000008</v>
+        <v>212.73714000000007</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A17)</f>
-        <v>11.195</v>
-      </c>
-      <c r="C17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A17)</f>
-        <v>1.9640000000000002</v>
-      </c>
-      <c r="D17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A17)</f>
-        <v>9.9190000000000005</v>
-      </c>
-      <c r="E17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A17)</f>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="F17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A17)</f>
-        <v>11.059000000000001</v>
-      </c>
-      <c r="G17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A17)</f>
-        <v>1.323</v>
-      </c>
-      <c r="H17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A17)</f>
-        <v>8.6370000000000005</v>
-      </c>
-      <c r="I17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A17)</f>
-        <v>11.376999999999999</v>
-      </c>
-      <c r="J17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A17)</f>
-        <v>15.813999999999998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K17">
         <f>ele_prod!K17</f>
@@ -31358,7 +31346,7 @@
       </c>
       <c r="L17">
         <f>ele_prod!L17</f>
-        <v>120.34123999999991</v>
+        <v>131.00257999999997</v>
       </c>
       <c r="M17">
         <f>ele_prod!M17</f>
@@ -31386,48 +31374,48 @@
       </c>
       <c r="S17">
         <f>ele_prod!S17</f>
-        <v>213.75394000000009</v>
+        <v>220.0968400000001</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A18)</f>
-        <v>50.771999999999998</v>
-      </c>
-      <c r="C18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A18)</f>
-        <v>4.1609999999999996</v>
-      </c>
-      <c r="D18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A18)</f>
-        <v>10.565</v>
-      </c>
-      <c r="E18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A18)</f>
-        <v>1.484</v>
-      </c>
-      <c r="F18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A18)</f>
-        <v>8.5440000000000005</v>
-      </c>
-      <c r="G18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A18)</f>
-        <v>4.5049999999999999</v>
-      </c>
-      <c r="H18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A18)</f>
-        <v>12.133000000000001</v>
-      </c>
-      <c r="I18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A18)</f>
-        <v>29.073</v>
-      </c>
-      <c r="J18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A18)</f>
-        <v>8.5360000000000014</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K18">
         <f>ele_prod!K18</f>
@@ -31435,7 +31423,7 @@
       </c>
       <c r="L18">
         <f>ele_prod!L18</f>
-        <v>46.36</v>
+        <v>53.38000000000001</v>
       </c>
       <c r="M18">
         <f>ele_prod!M18</f>
@@ -31463,48 +31451,48 @@
       </c>
       <c r="S18">
         <f>ele_prod!S18</f>
-        <v>22.339999999999996</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="C19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="D19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="G19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="H19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="I19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J19" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A19)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K19">
         <f>ele_prod!K19</f>
@@ -31512,7 +31500,7 @@
       </c>
       <c r="L19">
         <f>ele_prod!L19</f>
-        <v>8.4827999999999406</v>
+        <v>10.007199999999898</v>
       </c>
       <c r="M19">
         <f>ele_prod!M19</f>
@@ -31540,48 +31528,48 @@
       </c>
       <c r="S19">
         <f>ele_prod!S19</f>
-        <v>9.5962800000000925</v>
+        <v>7.6885800000000017</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,B$2,'[5]2010'!$D$2:$D$505,$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="C20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,C$2,'[5]2010'!$D$2:$D$505,$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="D20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,D$2,'[5]2010'!$D$2:$D$505,$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="E20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,E$2,'[5]2010'!$D$2:$D$505,$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="F20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,F$2,'[5]2010'!$D$2:$D$505,$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="G20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,G$2,'[5]2010'!$D$2:$D$505,$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="H20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,H$2,'[5]2010'!$D$2:$D$505,$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="I20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,I$2,'[5]2010'!$D$2:$D$505,$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J20" t="e">
         <f>SUMIFS('[5]2010'!$E$2:$E$505,'[5]2010'!$C$2:$C$505,J$2,'[5]2010'!$D$2:$D$505,$A20)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K20">
         <f>ele_prod!K20</f>
@@ -31589,7 +31577,7 @@
       </c>
       <c r="L20">
         <f>ele_prod!L20</f>
-        <v>5.4617400000000202</v>
+        <v>5.9656800000000203</v>
       </c>
       <c r="M20">
         <f>ele_prod!M20</f>
@@ -31617,48 +31605,48 @@
       </c>
       <c r="S20">
         <f>ele_prod!S20</f>
-        <v>2.9281599999999912</v>
+        <v>2.6357600000000048</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="e">
         <f>SUM(B3:B20)</f>
-        <v>604.4380000000001</v>
-      </c>
-      <c r="C21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" t="e">
         <f t="shared" ref="C21:J21" si="0">SUM(C3:C20)</f>
-        <v>516.31200000000001</v>
-      </c>
-      <c r="D21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" t="e">
         <f t="shared" si="0"/>
-        <v>265.60900000000004</v>
-      </c>
-      <c r="E21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" t="e">
         <f t="shared" si="0"/>
-        <v>129.21899999999999</v>
-      </c>
-      <c r="F21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" t="e">
         <f t="shared" si="0"/>
-        <v>356.048</v>
-      </c>
-      <c r="G21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" t="e">
         <f t="shared" si="0"/>
-        <v>323.57600000000002</v>
-      </c>
-      <c r="H21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" t="e">
         <f t="shared" si="0"/>
-        <v>196.61</v>
-      </c>
-      <c r="I21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" t="e">
         <f t="shared" si="0"/>
-        <v>299.274</v>
-      </c>
-      <c r="J21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J21" t="e">
         <f t="shared" si="0"/>
-        <v>373.22399999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K21">
         <f>ele_prod!K21</f>
@@ -31666,7 +31654,7 @@
       </c>
       <c r="L21">
         <f>ele_prod!L21</f>
-        <v>2961.9142400000001</v>
+        <v>3318.2365799999998</v>
       </c>
       <c r="M21">
         <f>ele_prod!M21</f>
@@ -31694,7 +31682,7 @@
       </c>
       <c r="S21">
         <f>ele_prod!S21</f>
-        <v>2451.9225000000006</v>
+        <v>2095.4284000000002</v>
       </c>
     </row>
   </sheetData>
